--- a/Call_Center_Dashboard/sample-data-excel-portfolio-project_Dashboard.xlsx
+++ b/Call_Center_Dashboard/sample-data-excel-portfolio-project_Dashboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\cours_d_info\Data science\Excel data Analysis\Call_Center_Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A294991-43E1-49D1-940D-0A9A392EE8CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4273C8CE-52F0-4DE8-89F2-A4DCEBCC6477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43080" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{26D4546B-D2A1-4444-8EAF-A6228F96F0C1}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{26D4546B-D2A1-4444-8EAF-A6228F96F0C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Dynamique" sheetId="6" r:id="rId1"/>
@@ -22,20 +22,35 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Data!$B$3:$H$1003</definedName>
     <definedName name="_xlcn.WorksheetConnection_sampledataexcelportfolioproject_Dashboard.xlsxcalls1" hidden="1">calls[]</definedName>
     <definedName name="_xlcn.WorksheetConnection_sampledataexcelportfolioproject_Dashboard.xlsxcustomers1" hidden="1">customers[]</definedName>
+    <definedName name="Segment_Representative">#N/A</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="19" r:id="rId5"/>
+    <pivotCache cacheId="8" r:id="rId5"/>
+    <pivotCache cacheId="22" r:id="rId6"/>
   </pivotCaches>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{876F7934-8845-4945-9796-88D515C7AA90}">
+      <x14:pivotCaches>
+        <pivotCache cacheId="10" r:id="rId7"/>
+      </x14:pivotCaches>
+    </ext>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
+      <x14:slicerCaches>
+        <x14:slicerCache r:id="rId8"/>
+      </x14:slicerCaches>
+    </ext>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{FCE2AD5D-F65C-4FA6-A056-5C36A1767C68}">
       <x15:dataModel>
         <x15:modelTables>
+          <x15:modelTable id="customers" name="customers" connection="WorksheetConnection_sample-data-excel-portfolio-project_Dashboard.xlsx!customers"/>
           <x15:modelTable id="calls" name="calls" connection="WorksheetConnection_sample-data-excel-portfolio-project_Dashboard.xlsx!calls"/>
-          <x15:modelTable id="customers" name="customers" connection="WorksheetConnection_sample-data-excel-portfolio-project_Dashboard.xlsx!customers"/>
         </x15:modelTables>
         <x15:modelRelationships>
           <x15:modelRelationship fromTable="calls" fromColumn="Customer ID" toTable="customers" toColumn="Customer ID"/>
@@ -165,7 +180,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3071" uniqueCount="1045">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3078" uniqueCount="1047">
   <si>
     <t>Customer ID</t>
   </si>
@@ -3300,15 +3315,22 @@
   </si>
   <si>
     <t>Durée total des appels</t>
+  </si>
+  <si>
+    <t>Note moyenne</t>
+  </si>
+  <si>
+    <t>5* calls</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ \$;\(#,##0.00\ \$\);#,##0.00\ \$"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -3482,7 +3504,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -3516,6 +3538,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3702,6 +3725,361 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Representative">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45C05FD9-E716-DED8-96BC-FC6118FADF14}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Representative"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5214938" y="338137"/>
+              <a:ext cx="1828800" cy="2381250"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fr-CA" sz="1100"/>
+                <a:t>Cette forme représente un segment. Les segments sont pris en charge dans Excel 2010 ou version ultérieure.
+En revanche, si la forme a été modifiée dans une version précédente d’Excel, ou si le classeur a été enregistré dans Excel 2003 ou une version précédente, vous ne pouvez pas utiliser le segment.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>500062</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="7" name="Groupe 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B90CAC0-E981-0DB2-AA91-17F8809B31E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="323850" y="881064"/>
+          <a:ext cx="1223962" cy="1057274"/>
+          <a:chOff x="323850" y="881064"/>
+          <a:chExt cx="1223962" cy="1057274"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="Dynamique!A4">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2" name="Rectangle 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A79E9654-E538-78AA-34D0-9736B67A86C9}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="323850" y="881064"/>
+            <a:ext cx="1223962" cy="1057274"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="44450" dist="27940" dir="5400000" algn="ctr">
+              <a:srgbClr val="000000">
+                <a:alpha val="32000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="balanced" dir="t">
+              <a:rot lat="0" lon="0" rev="8700000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="190500" h="38100"/>
+          </a:sp3d>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:fld id="{99A0B9F7-132B-42B4-BA9C-A6F8997E199F}" type="TxLink">
+              <a:rPr lang="en-US" sz="2400" b="1" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:pPr algn="ctr"/>
+              <a:t>1 000</a:t>
+            </a:fld>
+            <a:endParaRPr lang="fr-CA" sz="2400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="ZoneTexte 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49676210-0A66-F5BA-FE4D-BF4324B18C81}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="495300" y="914401"/>
+            <a:ext cx="890587" cy="233362"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="fr-CA" sz="1100" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Appels</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="Dynamique!A8">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="ZoneTexte 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22BFE4E2-E2EB-5435-5BF0-472D2C2C9CF6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="614363" y="1619250"/>
+            <a:ext cx="614362" cy="242888"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:fld id="{D9989E87-D274-4360-A798-25C8B018E886}" type="TxLink">
+              <a:rPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:pPr algn="ctr"/>
+              <a:t>611</a:t>
+            </a:fld>
+            <a:endParaRPr lang="fr-CA" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="6" name="Graphic 5" descr="Receiver with solid fill">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{130B8BB6-563F-43F5-B97B-C41ADCEFB269}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:extLst>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm rot="360795">
+            <a:off x="493529" y="963311"/>
+            <a:ext cx="203603" cy="191253"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4006,14 +4384,16 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Utilisateur" refreshedDate="45851.89852800926" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{81CEC352-8B09-4E44-B2C2-155CF23509C4}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Utilisateur" refreshedDate="45852.745737962963" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{81CEC352-8B09-4E44-B2C2-155CF23509C4}">
   <cacheSource type="external" connectionId="1"/>
-  <cacheFields count="3">
+  <cacheFields count="5">
     <cacheField name="[Measures].[Nombre d'appels]" caption="Nombre d'appels" numFmtId="0" hierarchy="15" level="32767"/>
     <cacheField name="[Measures].[Ventes]" caption="Ventes" numFmtId="0" hierarchy="16" level="32767"/>
     <cacheField name="[Measures].[Durée total des appels]" caption="Durée total des appels" numFmtId="0" hierarchy="17" level="32767"/>
+    <cacheField name="[Measures].[Note moyenne]" caption="Note moyenne" numFmtId="0" hierarchy="18" level="32767"/>
+    <cacheField name="[Measures].[5* calls]" caption="5* calls" numFmtId="0" hierarchy="19" level="32767"/>
   </cacheFields>
-  <cacheHierarchies count="21">
+  <cacheHierarchies count="23">
     <cacheHierarchy uniqueName="[calls].[Call number]" caption="Call number" attribute="1" defaultMemberUniqueName="[calls].[Call number].[All]" allUniqueName="[calls].[Call number].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[calls].[Customer ID]" caption="Customer ID" attribute="1" defaultMemberUniqueName="[calls].[Customer ID].[All]" allUniqueName="[calls].[Customer ID].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[calls].[Duration]" caption="Duration" attribute="1" defaultMemberUniqueName="[calls].[Duration].[All]" allUniqueName="[calls].[Duration].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
@@ -4044,6 +4424,16 @@
         <fieldUsage x="2"/>
       </fieldsUsage>
     </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Note moyenne]" caption="Note moyenne" measure="1" displayFolder="" measureGroup="calls" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="3"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[5* calls]" caption="5* calls" measure="1" displayFolder="" measureGroup="calls" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="4"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[Measures].[__XL_Count calls]" caption="__XL_Count calls" measure="1" displayFolder="" measureGroup="calls" count="0" hidden="1"/>
     <cacheHierarchy uniqueName="[Measures].[__XL_Count customers]" caption="__XL_Count customers" measure="1" displayFolder="" measureGroup="customers" count="0" hidden="1"/>
     <cacheHierarchy uniqueName="[Measures].[__No measures defined]" caption="__No measures defined" measure="1" displayFolder="" count="0" hidden="1"/>
@@ -4071,10 +4461,234 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Utilisateur" refreshedDate="45852.752826851851" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{D0B7E7E6-D218-4C6F-A313-24B2F26D0D17}">
+  <cacheSource type="external" connectionId="1"/>
+  <cacheFields count="6">
+    <cacheField name="[Measures].[Nombre d'appels]" caption="Nombre d'appels" numFmtId="0" hierarchy="15" level="32767"/>
+    <cacheField name="[Measures].[Ventes]" caption="Ventes" numFmtId="0" hierarchy="16" level="32767"/>
+    <cacheField name="[Measures].[Durée total des appels]" caption="Durée total des appels" numFmtId="0" hierarchy="17" level="32767"/>
+    <cacheField name="[Measures].[Note moyenne]" caption="Note moyenne" numFmtId="0" hierarchy="18" level="32767"/>
+    <cacheField name="[Measures].[5* calls]" caption="5* calls" numFmtId="0" hierarchy="19" level="32767"/>
+    <cacheField name="[calls].[Representative].[Representative]" caption="Representative" numFmtId="0" hierarchy="3" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsString="0"/>
+    </cacheField>
+  </cacheFields>
+  <cacheHierarchies count="23">
+    <cacheHierarchy uniqueName="[calls].[Call number]" caption="Call number" attribute="1" defaultMemberUniqueName="[calls].[Call number].[All]" allUniqueName="[calls].[Call number].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Customer ID]" caption="Customer ID" attribute="1" defaultMemberUniqueName="[calls].[Customer ID].[All]" allUniqueName="[calls].[Customer ID].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Duration]" caption="Duration" attribute="1" defaultMemberUniqueName="[calls].[Duration].[All]" allUniqueName="[calls].[Duration].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Representative]" caption="Representative" attribute="1" defaultMemberUniqueName="[calls].[Representative].[All]" allUniqueName="[calls].[Representative].[All]" dimensionUniqueName="[calls]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="5"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[calls].[Date of Call]" caption="Date of Call" attribute="1" time="1" defaultMemberUniqueName="[calls].[Date of Call].[All]" allUniqueName="[calls].[Date of Call].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Purchase Amount]" caption="Purchase Amount" attribute="1" defaultMemberUniqueName="[calls].[Purchase Amount].[All]" allUniqueName="[calls].[Purchase Amount].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Satisfaction Rating]" caption="Satisfaction Rating" attribute="1" defaultMemberUniqueName="[calls].[Satisfaction Rating].[All]" allUniqueName="[calls].[Satisfaction Rating].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[FY]" caption="FY" attribute="1" defaultMemberUniqueName="[calls].[FY].[All]" allUniqueName="[calls].[FY].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Day of week]" caption="Day of week" attribute="1" defaultMemberUniqueName="[calls].[Day of week].[All]" allUniqueName="[calls].[Day of week].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Duration Bucket]" caption="Duration Bucket" attribute="1" defaultMemberUniqueName="[calls].[Duration Bucket].[All]" allUniqueName="[calls].[Duration Bucket].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Rating rounded]" caption="Rating rounded" attribute="1" defaultMemberUniqueName="[calls].[Rating rounded].[All]" allUniqueName="[calls].[Rating rounded].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[customers].[Customer ID]" caption="Customer ID" attribute="1" defaultMemberUniqueName="[customers].[Customer ID].[All]" allUniqueName="[customers].[Customer ID].[All]" dimensionUniqueName="[customers]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[customers].[Gedner]" caption="Gedner" attribute="1" defaultMemberUniqueName="[customers].[Gedner].[All]" allUniqueName="[customers].[Gedner].[All]" dimensionUniqueName="[customers]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[customers].[Age]" caption="Age" attribute="1" defaultMemberUniqueName="[customers].[Age].[All]" allUniqueName="[customers].[Age].[All]" dimensionUniqueName="[customers]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[customers].[City]" caption="City" attribute="1" defaultMemberUniqueName="[customers].[City].[All]" allUniqueName="[customers].[City].[All]" dimensionUniqueName="[customers]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Nombre d'appels]" caption="Nombre d'appels" measure="1" displayFolder="" measureGroup="calls" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Ventes]" caption="Ventes" measure="1" displayFolder="" measureGroup="calls" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Durée total des appels]" caption="Durée total des appels" measure="1" displayFolder="" measureGroup="calls" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="2"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Note moyenne]" caption="Note moyenne" measure="1" displayFolder="" measureGroup="calls" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="3"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[5* calls]" caption="5* calls" measure="1" displayFolder="" measureGroup="calls" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="4"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count calls]" caption="__XL_Count calls" measure="1" displayFolder="" measureGroup="calls" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count customers]" caption="__XL_Count customers" measure="1" displayFolder="" measureGroup="customers" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__No measures defined]" caption="__No measures defined" measure="1" displayFolder="" count="0" hidden="1"/>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="3">
+    <dimension name="calls" uniqueName="[calls]" caption="calls"/>
+    <dimension name="customers" uniqueName="[customers]" caption="customers"/>
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+  </dimensions>
+  <measureGroups count="2">
+    <measureGroup name="calls" caption="calls"/>
+    <measureGroup name="customers" caption="customers"/>
+  </measureGroups>
+  <maps count="3">
+    <map measureGroup="0" dimension="0"/>
+    <map measureGroup="0" dimension="1"/>
+    <map measureGroup="1" dimension="1"/>
+  </maps>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Utilisateur" refreshedDate="45852.752714351853" backgroundQuery="1" createdVersion="3" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{FEEC9224-7E68-4807-AB47-F2EBA98E80D3}">
+  <cacheSource type="external" connectionId="1">
+    <extLst>
+      <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{F057638F-6D5F-4e77-A914-E7F072B9BCA8}">
+        <x14:sourceConnection name="ThisWorkbookDataModel"/>
+      </ext>
+    </extLst>
+  </cacheSource>
+  <cacheFields count="0"/>
+  <cacheHierarchies count="23">
+    <cacheHierarchy uniqueName="[calls].[Call number]" caption="Call number" attribute="1" defaultMemberUniqueName="[calls].[Call number].[All]" allUniqueName="[calls].[Call number].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Customer ID]" caption="Customer ID" attribute="1" defaultMemberUniqueName="[calls].[Customer ID].[All]" allUniqueName="[calls].[Customer ID].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Duration]" caption="Duration" attribute="1" defaultMemberUniqueName="[calls].[Duration].[All]" allUniqueName="[calls].[Duration].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Representative]" caption="Representative" attribute="1" defaultMemberUniqueName="[calls].[Representative].[All]" allUniqueName="[calls].[Representative].[All]" dimensionUniqueName="[calls]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Date of Call]" caption="Date of Call" attribute="1" time="1" defaultMemberUniqueName="[calls].[Date of Call].[All]" allUniqueName="[calls].[Date of Call].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Purchase Amount]" caption="Purchase Amount" attribute="1" defaultMemberUniqueName="[calls].[Purchase Amount].[All]" allUniqueName="[calls].[Purchase Amount].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Satisfaction Rating]" caption="Satisfaction Rating" attribute="1" defaultMemberUniqueName="[calls].[Satisfaction Rating].[All]" allUniqueName="[calls].[Satisfaction Rating].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[FY]" caption="FY" attribute="1" defaultMemberUniqueName="[calls].[FY].[All]" allUniqueName="[calls].[FY].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Day of week]" caption="Day of week" attribute="1" defaultMemberUniqueName="[calls].[Day of week].[All]" allUniqueName="[calls].[Day of week].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Duration Bucket]" caption="Duration Bucket" attribute="1" defaultMemberUniqueName="[calls].[Duration Bucket].[All]" allUniqueName="[calls].[Duration Bucket].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Rating rounded]" caption="Rating rounded" attribute="1" defaultMemberUniqueName="[calls].[Rating rounded].[All]" allUniqueName="[calls].[Rating rounded].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[customers].[Customer ID]" caption="Customer ID" attribute="1" defaultMemberUniqueName="[customers].[Customer ID].[All]" allUniqueName="[customers].[Customer ID].[All]" dimensionUniqueName="[customers]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[customers].[Gedner]" caption="Gedner" attribute="1" defaultMemberUniqueName="[customers].[Gedner].[All]" allUniqueName="[customers].[Gedner].[All]" dimensionUniqueName="[customers]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[customers].[Age]" caption="Age" attribute="1" defaultMemberUniqueName="[customers].[Age].[All]" allUniqueName="[customers].[Age].[All]" dimensionUniqueName="[customers]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[customers].[City]" caption="City" attribute="1" defaultMemberUniqueName="[customers].[City].[All]" allUniqueName="[customers].[City].[All]" dimensionUniqueName="[customers]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Nombre d'appels]" caption="Nombre d'appels" measure="1" displayFolder="" measureGroup="calls" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Ventes]" caption="Ventes" measure="1" displayFolder="" measureGroup="calls" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Durée total des appels]" caption="Durée total des appels" measure="1" displayFolder="" measureGroup="calls" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Note moyenne]" caption="Note moyenne" measure="1" displayFolder="" measureGroup="calls" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[5* calls]" caption="5* calls" measure="1" displayFolder="" measureGroup="calls" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count calls]" caption="__XL_Count calls" measure="1" displayFolder="" measureGroup="calls" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count customers]" caption="__XL_Count customers" measure="1" displayFolder="" measureGroup="customers" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__No measures defined]" caption="__No measures defined" measure="1" displayFolder="" count="0" hidden="1"/>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition slicerData="1" pivotCacheId="1171181480" supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E28B032F-BFE3-440B-ACDC-753AF11D0B67}" name="Tableau croisé dynamique1" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:C4" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3CBC4AF0-342F-4D2F-BFAA-10C5ADEC97FE}" name="rep pivot" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A7:E8" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="6">
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </colItems>
+  <dataFields count="5">
+    <dataField fld="0" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField fld="1" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField fld="2" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField fld="3" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField fld="4" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotHierarchies count="23">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1">
+      <members count="3" level="1">
+        <member name="[calls].[Representative].&amp;[R02]"/>
+        <member name="[calls].[Representative].&amp;[R03]"/>
+        <member name="[calls].[Representative].&amp;[R04]"/>
+      </members>
+    </pivotHierarchy>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <colHierarchiesUsage count="1">
+    <colHierarchyUsage hierarchyUsage="-2"/>
+  </colHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_sample-data-excel-portfolio-project_Dashboard.xlsx!calls">
+        <x15:activeTabTopLevelEntity name="[calls]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E28B032F-BFE3-440B-ACDC-753AF11D0B67}" name="Tableau croisé dynamique1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:E4" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="5">
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
@@ -4085,7 +4699,7 @@
   <colFields count="1">
     <field x="-2"/>
   </colFields>
-  <colItems count="3">
+  <colItems count="5">
     <i>
       <x/>
     </i>
@@ -4095,13 +4709,21 @@
     <i i="2">
       <x v="2"/>
     </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
   </colItems>
-  <dataFields count="3">
+  <dataFields count="5">
     <dataField fld="0" subtotal="count" baseField="0" baseItem="0"/>
     <dataField fld="1" subtotal="count" baseField="0" baseItem="0"/>
     <dataField fld="2" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField fld="3" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField fld="4" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
-  <pivotHierarchies count="21">
+  <pivotHierarchies count="23">
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
@@ -4117,6 +4739,8 @@
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
@@ -4234,6 +4858,43 @@
   <rel r:id="rId4"/>
   <rel r:id="rId5"/>
 </richValueRels>
+</file>
+
+<file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Segment_Representative" xr10:uid="{6ADD3075-68BE-4AC4-91FF-42F58A2F2969}" sourceName="[calls].[Representative]">
+  <pivotTables>
+    <pivotTable tabId="6" name="rep pivot"/>
+  </pivotTables>
+  <data>
+    <olap pivotCacheId="1171181480">
+      <levels count="2">
+        <level uniqueName="[calls].[Representative].[(All)]" sourceCaption="(All)" count="0"/>
+        <level uniqueName="[calls].[Representative].[Representative]" sourceCaption="Representative" count="5">
+          <ranges>
+            <range startItem="0">
+              <i n="[calls].[Representative].&amp;[R01]" c="R01"/>
+              <i n="[calls].[Representative].&amp;[R02]" c="R02"/>
+              <i n="[calls].[Representative].&amp;[R03]" c="R03"/>
+              <i n="[calls].[Representative].&amp;[R04]" c="R04"/>
+              <i n="[calls].[Representative].&amp;[R05]" c="R05"/>
+            </range>
+          </ranges>
+        </level>
+      </levels>
+      <selections count="3">
+        <selection n="[calls].[Representative].&amp;[R02]"/>
+        <selection n="[calls].[Representative].&amp;[R03]"/>
+        <selection n="[calls].[Representative].&amp;[R04]"/>
+      </selections>
+    </olap>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="Representative" xr10:uid="{A753E9D1-A763-4755-AB7C-682A08739652}" cache="Segment_Representative" caption="Representative" level="1" rowHeight="225425"/>
+</slicers>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4540,20 +5201,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D46B6B0A-2023-4684-B5DE-DA4F38374D85}">
-  <dimension ref="A3:C4"/>
+  <dimension ref="A3:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.92578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.2109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.35546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>1042</v>
       </c>
@@ -4563,8 +5226,14 @@
       <c r="C3" t="s">
         <v>1044</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D3" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="21">
         <v>1000</v>
       </c>
@@ -4574,9 +5243,57 @@
       <c r="C4" s="21">
         <v>89850</v>
       </c>
+      <c r="D4" s="23">
+        <v>3.8854000000000033</v>
+      </c>
+      <c r="E4" s="21">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="21">
+        <v>611</v>
+      </c>
+      <c r="B8" s="22">
+        <v>58104</v>
+      </c>
+      <c r="C8" s="21">
+        <v>54807</v>
+      </c>
+      <c r="D8" s="23">
+        <v>3.8747954173486141</v>
+      </c>
+      <c r="E8" s="21">
+        <v>196</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
+      <x14:slicerList>
+        <x14:slicer r:id="rId4"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4588,7 +5305,7 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="3.5" customWidth="1"/>
     <col min="2" max="2" width="14.640625" customWidth="1"/>
@@ -4610,10 +5327,10 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="2" spans="2:20" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.4">
       <c r="R2" s="1"/>
     </row>
-    <row r="3" spans="2:20" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B3" s="14" t="s">
         <v>25</v>
       </c>
@@ -4660,7 +5377,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="4" spans="2:20" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>26</v>
       </c>
@@ -4711,7 +5428,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="2:20" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>27</v>
       </c>
@@ -4762,7 +5479,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="6" spans="2:20" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>28</v>
       </c>
@@ -4813,7 +5530,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="7" spans="2:20" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
         <v>29</v>
       </c>
@@ -4864,7 +5581,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="8" spans="2:20" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
         <v>30</v>
       </c>
@@ -4915,7 +5632,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="2:20" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
         <v>31</v>
       </c>
@@ -4966,7 +5683,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="2:20" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
         <v>32</v>
       </c>
@@ -5017,7 +5734,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="11" spans="2:20" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>33</v>
       </c>
@@ -5068,7 +5785,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="12" spans="2:20" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
         <v>34</v>
       </c>
@@ -5119,7 +5836,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="13" spans="2:20" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
         <v>35</v>
       </c>
@@ -5170,7 +5887,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="14" spans="2:20" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
         <v>36</v>
       </c>
@@ -5221,7 +5938,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="15" spans="2:20" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
         <v>37</v>
       </c>
@@ -5272,7 +5989,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="16" spans="2:20" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
         <v>38</v>
       </c>
@@ -5323,7 +6040,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="17" spans="2:20" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
         <v>39</v>
       </c>
@@ -5374,7 +6091,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="18" spans="2:20" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
         <v>40</v>
       </c>
@@ -5425,7 +6142,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="19" spans="2:20" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
         <v>41</v>
       </c>
@@ -5464,7 +6181,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="2:20" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
         <v>42</v>
       </c>
@@ -5503,7 +6220,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="2:20" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
         <v>43</v>
       </c>
@@ -5542,7 +6259,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:20" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
         <v>44</v>
       </c>
@@ -5581,7 +6298,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="2:20" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
         <v>45</v>
       </c>
@@ -5620,7 +6337,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="2:20" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
         <v>46</v>
       </c>
@@ -5659,7 +6376,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="2:20" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
         <v>47</v>
       </c>
@@ -5698,7 +6415,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:20" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
         <v>48</v>
       </c>
@@ -5737,7 +6454,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="2:20" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
         <v>49</v>
       </c>
@@ -5776,7 +6493,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="2:20" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
         <v>50</v>
       </c>
@@ -5815,7 +6532,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="2:20" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
         <v>51</v>
       </c>
@@ -5854,7 +6571,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="2:20" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
         <v>52</v>
       </c>
@@ -5893,7 +6610,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="2:20" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
         <v>53</v>
       </c>
@@ -5932,7 +6649,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="2:20" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
         <v>54</v>
       </c>
@@ -5971,7 +6688,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
         <v>55</v>
       </c>
@@ -6010,7 +6727,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
         <v>56</v>
       </c>
@@ -6049,7 +6766,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
         <v>57</v>
       </c>
@@ -6088,7 +6805,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B36" t="s">
         <v>58</v>
       </c>
@@ -6127,7 +6844,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
         <v>59</v>
       </c>
@@ -6166,7 +6883,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B38" t="s">
         <v>60</v>
       </c>
@@ -6205,7 +6922,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B39" t="s">
         <v>61</v>
       </c>
@@ -6244,7 +6961,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B40" t="s">
         <v>62</v>
       </c>
@@ -6283,7 +7000,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B41" t="s">
         <v>63</v>
       </c>
@@ -6322,7 +7039,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B42" t="s">
         <v>64</v>
       </c>
@@ -6361,7 +7078,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B43" t="s">
         <v>65</v>
       </c>
@@ -6400,7 +7117,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
         <v>66</v>
       </c>
@@ -6439,7 +7156,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B45" t="s">
         <v>67</v>
       </c>
@@ -6478,7 +7195,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B46" t="s">
         <v>68</v>
       </c>
@@ -6517,7 +7234,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B47" t="s">
         <v>69</v>
       </c>
@@ -6556,7 +7273,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B48" t="s">
         <v>70</v>
       </c>
@@ -6595,7 +7312,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B49" t="s">
         <v>71</v>
       </c>
@@ -6634,7 +7351,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B50" t="s">
         <v>72</v>
       </c>
@@ -6673,7 +7390,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B51" t="s">
         <v>73</v>
       </c>
@@ -6712,7 +7429,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B52" t="s">
         <v>74</v>
       </c>
@@ -6751,7 +7468,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B53" t="s">
         <v>75</v>
       </c>
@@ -6790,7 +7507,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B54" t="s">
         <v>76</v>
       </c>
@@ -6829,7 +7546,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B55" t="s">
         <v>77</v>
       </c>
@@ -6868,7 +7585,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B56" t="s">
         <v>78</v>
       </c>
@@ -6907,7 +7624,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B57" t="s">
         <v>79</v>
       </c>
@@ -6946,7 +7663,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B58" t="s">
         <v>80</v>
       </c>
@@ -6985,7 +7702,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B59" t="s">
         <v>81</v>
       </c>
@@ -7024,7 +7741,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B60" t="s">
         <v>82</v>
       </c>
@@ -7063,7 +7780,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B61" t="s">
         <v>83</v>
       </c>
@@ -7102,7 +7819,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B62" t="s">
         <v>84</v>
       </c>
@@ -7141,7 +7858,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B63" t="s">
         <v>85</v>
       </c>
@@ -7180,7 +7897,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B64" t="s">
         <v>86</v>
       </c>
@@ -7219,7 +7936,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B65" t="s">
         <v>87</v>
       </c>
@@ -7258,7 +7975,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B66" t="s">
         <v>88</v>
       </c>
@@ -7297,7 +8014,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B67" t="s">
         <v>89</v>
       </c>
@@ -7336,7 +8053,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B68" t="s">
         <v>90</v>
       </c>
@@ -7375,7 +8092,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B69" t="s">
         <v>91</v>
       </c>
@@ -7414,7 +8131,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B70" t="s">
         <v>92</v>
       </c>
@@ -7453,7 +8170,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B71" t="s">
         <v>93</v>
       </c>
@@ -7492,7 +8209,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B72" t="s">
         <v>94</v>
       </c>
@@ -7531,7 +8248,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B73" t="s">
         <v>95</v>
       </c>
@@ -7570,7 +8287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B74" t="s">
         <v>96</v>
       </c>
@@ -7609,7 +8326,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B75" t="s">
         <v>97</v>
       </c>
@@ -7648,7 +8365,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B76" t="s">
         <v>98</v>
       </c>
@@ -7687,7 +8404,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B77" t="s">
         <v>99</v>
       </c>
@@ -7726,7 +8443,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B78" t="s">
         <v>100</v>
       </c>
@@ -7765,7 +8482,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B79" t="s">
         <v>101</v>
       </c>
@@ -7804,7 +8521,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B80" t="s">
         <v>102</v>
       </c>
@@ -7843,7 +8560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B81" t="s">
         <v>103</v>
       </c>
@@ -7882,7 +8599,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="82" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B82" t="s">
         <v>104</v>
       </c>
@@ -7921,7 +8638,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B83" t="s">
         <v>105</v>
       </c>
@@ -7960,7 +8677,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="84" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B84" t="s">
         <v>106</v>
       </c>
@@ -7999,7 +8716,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="85" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B85" t="s">
         <v>107</v>
       </c>
@@ -8038,7 +8755,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="86" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B86" t="s">
         <v>108</v>
       </c>
@@ -8077,7 +8794,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B87" t="s">
         <v>109</v>
       </c>
@@ -8116,7 +8833,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="88" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B88" t="s">
         <v>110</v>
       </c>
@@ -8155,7 +8872,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="89" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B89" t="s">
         <v>111</v>
       </c>
@@ -8194,7 +8911,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="90" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B90" t="s">
         <v>112</v>
       </c>
@@ -8233,7 +8950,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="91" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B91" t="s">
         <v>113</v>
       </c>
@@ -8272,7 +8989,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="92" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B92" t="s">
         <v>114</v>
       </c>
@@ -8311,7 +9028,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="93" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B93" t="s">
         <v>115</v>
       </c>
@@ -8350,7 +9067,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="94" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B94" t="s">
         <v>116</v>
       </c>
@@ -8389,7 +9106,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="95" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B95" t="s">
         <v>117</v>
       </c>
@@ -8428,7 +9145,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="96" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B96" t="s">
         <v>118</v>
       </c>
@@ -8467,7 +9184,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="97" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B97" t="s">
         <v>119</v>
       </c>
@@ -8506,7 +9223,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B98" t="s">
         <v>120</v>
       </c>
@@ -8545,7 +9262,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="99" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B99" t="s">
         <v>121</v>
       </c>
@@ -8584,7 +9301,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="100" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B100" t="s">
         <v>122</v>
       </c>
@@ -8623,7 +9340,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="101" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B101" t="s">
         <v>123</v>
       </c>
@@ -8662,7 +9379,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="102" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B102" t="s">
         <v>124</v>
       </c>
@@ -8701,7 +9418,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="103" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B103" t="s">
         <v>125</v>
       </c>
@@ -8740,7 +9457,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="104" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B104" t="s">
         <v>126</v>
       </c>
@@ -8779,7 +9496,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="105" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B105" t="s">
         <v>127</v>
       </c>
@@ -8818,7 +9535,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="106" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B106" t="s">
         <v>128</v>
       </c>
@@ -8857,7 +9574,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="107" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B107" t="s">
         <v>129</v>
       </c>
@@ -8896,7 +9613,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="108" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B108" t="s">
         <v>130</v>
       </c>
@@ -8935,7 +9652,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="109" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B109" t="s">
         <v>131</v>
       </c>
@@ -8974,7 +9691,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="110" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B110" t="s">
         <v>132</v>
       </c>
@@ -9013,7 +9730,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="111" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B111" t="s">
         <v>133</v>
       </c>
@@ -9052,7 +9769,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="112" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B112" t="s">
         <v>134</v>
       </c>
@@ -9091,7 +9808,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="113" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B113" t="s">
         <v>135</v>
       </c>
@@ -9130,7 +9847,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="114" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B114" t="s">
         <v>136</v>
       </c>
@@ -9169,7 +9886,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="115" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B115" t="s">
         <v>137</v>
       </c>
@@ -9208,7 +9925,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="116" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B116" t="s">
         <v>138</v>
       </c>
@@ -9247,7 +9964,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="117" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B117" t="s">
         <v>139</v>
       </c>
@@ -9286,7 +10003,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="118" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B118" t="s">
         <v>140</v>
       </c>
@@ -9325,7 +10042,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="119" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B119" t="s">
         <v>141</v>
       </c>
@@ -9364,7 +10081,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="120" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B120" t="s">
         <v>142</v>
       </c>
@@ -9403,7 +10120,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="121" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B121" t="s">
         <v>143</v>
       </c>
@@ -9442,7 +10159,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="122" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B122" t="s">
         <v>144</v>
       </c>
@@ -9481,7 +10198,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="123" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B123" t="s">
         <v>145</v>
       </c>
@@ -9520,7 +10237,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="124" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B124" t="s">
         <v>146</v>
       </c>
@@ -9559,7 +10276,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="125" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B125" t="s">
         <v>147</v>
       </c>
@@ -9598,7 +10315,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="126" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B126" t="s">
         <v>148</v>
       </c>
@@ -9637,7 +10354,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="127" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B127" t="s">
         <v>149</v>
       </c>
@@ -9676,7 +10393,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="128" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B128" t="s">
         <v>150</v>
       </c>
@@ -9715,7 +10432,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="129" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="129" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B129" t="s">
         <v>151</v>
       </c>
@@ -9754,7 +10471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="130" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B130" t="s">
         <v>152</v>
       </c>
@@ -9793,7 +10510,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="131" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B131" t="s">
         <v>153</v>
       </c>
@@ -9832,7 +10549,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="132" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B132" t="s">
         <v>154</v>
       </c>
@@ -9871,7 +10588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="133" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B133" t="s">
         <v>155</v>
       </c>
@@ -9910,7 +10627,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="134" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B134" t="s">
         <v>156</v>
       </c>
@@ -9949,7 +10666,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="135" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B135" t="s">
         <v>157</v>
       </c>
@@ -9988,7 +10705,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="136" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B136" t="s">
         <v>158</v>
       </c>
@@ -10027,7 +10744,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="137" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B137" t="s">
         <v>159</v>
       </c>
@@ -10066,7 +10783,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="138" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="138" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B138" t="s">
         <v>160</v>
       </c>
@@ -10105,7 +10822,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="139" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B139" t="s">
         <v>161</v>
       </c>
@@ -10144,7 +10861,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="140" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="140" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B140" t="s">
         <v>162</v>
       </c>
@@ -10183,7 +10900,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="141" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B141" t="s">
         <v>163</v>
       </c>
@@ -10222,7 +10939,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="142" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="142" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B142" t="s">
         <v>164</v>
       </c>
@@ -10261,7 +10978,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="143" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B143" t="s">
         <v>165</v>
       </c>
@@ -10300,7 +11017,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="144" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B144" t="s">
         <v>166</v>
       </c>
@@ -10339,7 +11056,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="145" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B145" t="s">
         <v>167</v>
       </c>
@@ -10378,7 +11095,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="146" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="146" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B146" t="s">
         <v>168</v>
       </c>
@@ -10417,7 +11134,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="147" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B147" t="s">
         <v>169</v>
       </c>
@@ -10456,7 +11173,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="148" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B148" t="s">
         <v>170</v>
       </c>
@@ -10495,7 +11212,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="149" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B149" t="s">
         <v>171</v>
       </c>
@@ -10534,7 +11251,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="150" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="150" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B150" t="s">
         <v>172</v>
       </c>
@@ -10573,7 +11290,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="151" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B151" t="s">
         <v>173</v>
       </c>
@@ -10612,7 +11329,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="152" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B152" t="s">
         <v>174</v>
       </c>
@@ -10651,7 +11368,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="153" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B153" t="s">
         <v>175</v>
       </c>
@@ -10690,7 +11407,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="154" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B154" t="s">
         <v>176</v>
       </c>
@@ -10729,7 +11446,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="155" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B155" t="s">
         <v>177</v>
       </c>
@@ -10768,7 +11485,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="156" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B156" t="s">
         <v>178</v>
       </c>
@@ -10807,7 +11524,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="157" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="157" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B157" t="s">
         <v>179</v>
       </c>
@@ -10846,7 +11563,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="158" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B158" t="s">
         <v>180</v>
       </c>
@@ -10885,7 +11602,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="159" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B159" t="s">
         <v>181</v>
       </c>
@@ -10924,7 +11641,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="160" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B160" t="s">
         <v>182</v>
       </c>
@@ -10963,7 +11680,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="161" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="161" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B161" t="s">
         <v>183</v>
       </c>
@@ -11002,7 +11719,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="162" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="162" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B162" t="s">
         <v>184</v>
       </c>
@@ -11041,7 +11758,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="163" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="163" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B163" t="s">
         <v>185</v>
       </c>
@@ -11080,7 +11797,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="164" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B164" t="s">
         <v>186</v>
       </c>
@@ -11119,7 +11836,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="165" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B165" t="s">
         <v>187</v>
       </c>
@@ -11158,7 +11875,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="166" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B166" t="s">
         <v>188</v>
       </c>
@@ -11197,7 +11914,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="167" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B167" t="s">
         <v>189</v>
       </c>
@@ -11236,7 +11953,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="168" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B168" t="s">
         <v>190</v>
       </c>
@@ -11275,7 +11992,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="169" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B169" t="s">
         <v>191</v>
       </c>
@@ -11314,7 +12031,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="170" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B170" t="s">
         <v>192</v>
       </c>
@@ -11353,7 +12070,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="171" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B171" t="s">
         <v>193</v>
       </c>
@@ -11392,7 +12109,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="172" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B172" t="s">
         <v>194</v>
       </c>
@@ -11431,7 +12148,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="173" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B173" t="s">
         <v>195</v>
       </c>
@@ -11470,7 +12187,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="174" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="174" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B174" t="s">
         <v>196</v>
       </c>
@@ -11509,7 +12226,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="175" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B175" t="s">
         <v>197</v>
       </c>
@@ -11548,7 +12265,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="176" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="176" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B176" t="s">
         <v>198</v>
       </c>
@@ -11587,7 +12304,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="177" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="177" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B177" t="s">
         <v>199</v>
       </c>
@@ -11626,7 +12343,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="178" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B178" t="s">
         <v>200</v>
       </c>
@@ -11665,7 +12382,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="179" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="179" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B179" t="s">
         <v>201</v>
       </c>
@@ -11704,7 +12421,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="180" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="180" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B180" t="s">
         <v>202</v>
       </c>
@@ -11743,7 +12460,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="181" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B181" t="s">
         <v>203</v>
       </c>
@@ -11782,7 +12499,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="182" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="182" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B182" t="s">
         <v>204</v>
       </c>
@@ -11821,7 +12538,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="183" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="183" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B183" t="s">
         <v>205</v>
       </c>
@@ -11860,7 +12577,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="184" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B184" t="s">
         <v>206</v>
       </c>
@@ -11899,7 +12616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="185" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B185" t="s">
         <v>207</v>
       </c>
@@ -11938,7 +12655,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="186" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="186" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B186" t="s">
         <v>208</v>
       </c>
@@ -11977,7 +12694,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="187" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="187" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B187" t="s">
         <v>209</v>
       </c>
@@ -12016,7 +12733,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="188" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B188" t="s">
         <v>210</v>
       </c>
@@ -12055,7 +12772,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="189" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B189" t="s">
         <v>211</v>
       </c>
@@ -12094,7 +12811,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="190" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="190" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B190" t="s">
         <v>212</v>
       </c>
@@ -12133,7 +12850,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="191" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="191" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B191" t="s">
         <v>213</v>
       </c>
@@ -12172,7 +12889,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="192" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="192" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B192" t="s">
         <v>214</v>
       </c>
@@ -12211,7 +12928,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="193" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="193" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B193" t="s">
         <v>215</v>
       </c>
@@ -12250,7 +12967,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="194" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="194" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B194" t="s">
         <v>216</v>
       </c>
@@ -12289,7 +13006,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="195" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B195" t="s">
         <v>217</v>
       </c>
@@ -12328,7 +13045,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="196" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="196" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B196" t="s">
         <v>218</v>
       </c>
@@ -12367,7 +13084,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="197" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B197" t="s">
         <v>219</v>
       </c>
@@ -12406,7 +13123,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="198" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="198" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B198" t="s">
         <v>220</v>
       </c>
@@ -12445,7 +13162,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="199" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B199" t="s">
         <v>221</v>
       </c>
@@ -12484,7 +13201,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="200" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="200" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B200" t="s">
         <v>222</v>
       </c>
@@ -12523,7 +13240,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="201" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="201" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B201" t="s">
         <v>223</v>
       </c>
@@ -12562,7 +13279,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="202" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="202" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B202" t="s">
         <v>224</v>
       </c>
@@ -12601,7 +13318,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="203" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B203" t="s">
         <v>225</v>
       </c>
@@ -12640,7 +13357,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="204" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B204" t="s">
         <v>226</v>
       </c>
@@ -12679,7 +13396,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="205" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="205" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B205" t="s">
         <v>227</v>
       </c>
@@ -12718,7 +13435,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="206" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="206" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B206" t="s">
         <v>228</v>
       </c>
@@ -12757,7 +13474,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="207" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="207" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B207" t="s">
         <v>229</v>
       </c>
@@ -12796,7 +13513,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="208" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="208" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B208" t="s">
         <v>230</v>
       </c>
@@ -12835,7 +13552,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="209" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="209" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B209" t="s">
         <v>231</v>
       </c>
@@ -12874,7 +13591,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="210" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="210" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B210" t="s">
         <v>232</v>
       </c>
@@ -12913,7 +13630,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="211" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="211" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B211" t="s">
         <v>233</v>
       </c>
@@ -12952,7 +13669,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="212" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="212" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B212" t="s">
         <v>234</v>
       </c>
@@ -12991,7 +13708,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="213" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="213" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B213" t="s">
         <v>235</v>
       </c>
@@ -13030,7 +13747,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="214" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="214" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B214" t="s">
         <v>236</v>
       </c>
@@ -13069,7 +13786,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="215" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="215" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B215" t="s">
         <v>237</v>
       </c>
@@ -13108,7 +13825,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="216" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="216" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B216" t="s">
         <v>238</v>
       </c>
@@ -13147,7 +13864,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="217" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="217" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B217" t="s">
         <v>239</v>
       </c>
@@ -13186,7 +13903,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="218" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="218" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B218" t="s">
         <v>240</v>
       </c>
@@ -13225,7 +13942,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="219" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="219" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B219" t="s">
         <v>241</v>
       </c>
@@ -13264,7 +13981,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="220" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="220" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B220" t="s">
         <v>242</v>
       </c>
@@ -13303,7 +14020,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="221" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B221" t="s">
         <v>243</v>
       </c>
@@ -13342,7 +14059,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="222" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="222" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B222" t="s">
         <v>244</v>
       </c>
@@ -13381,7 +14098,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="223" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="223" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B223" t="s">
         <v>245</v>
       </c>
@@ -13420,7 +14137,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="224" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="224" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B224" t="s">
         <v>246</v>
       </c>
@@ -13459,7 +14176,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="225" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="225" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B225" t="s">
         <v>247</v>
       </c>
@@ -13498,7 +14215,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="226" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="226" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B226" t="s">
         <v>248</v>
       </c>
@@ -13537,7 +14254,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="227" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="227" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B227" t="s">
         <v>249</v>
       </c>
@@ -13576,7 +14293,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="228" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B228" t="s">
         <v>250</v>
       </c>
@@ -13615,7 +14332,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="229" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="229" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B229" t="s">
         <v>251</v>
       </c>
@@ -13654,7 +14371,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="230" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="230" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B230" t="s">
         <v>252</v>
       </c>
@@ -13693,7 +14410,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="231" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="231" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B231" t="s">
         <v>253</v>
       </c>
@@ -13732,7 +14449,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="232" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="232" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B232" t="s">
         <v>254</v>
       </c>
@@ -13771,7 +14488,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="233" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="233" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B233" t="s">
         <v>255</v>
       </c>
@@ -13810,7 +14527,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="234" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="234" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B234" t="s">
         <v>256</v>
       </c>
@@ -13849,7 +14566,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="235" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="235" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B235" t="s">
         <v>257</v>
       </c>
@@ -13888,7 +14605,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="236" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="236" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B236" t="s">
         <v>258</v>
       </c>
@@ -13927,7 +14644,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="237" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="237" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B237" t="s">
         <v>259</v>
       </c>
@@ -13966,7 +14683,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="238" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="238" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B238" t="s">
         <v>260</v>
       </c>
@@ -14005,7 +14722,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="239" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="239" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B239" t="s">
         <v>261</v>
       </c>
@@ -14044,7 +14761,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="240" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="240" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B240" t="s">
         <v>262</v>
       </c>
@@ -14083,7 +14800,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="241" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="241" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B241" t="s">
         <v>263</v>
       </c>
@@ -14122,7 +14839,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="242" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="242" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B242" t="s">
         <v>264</v>
       </c>
@@ -14161,7 +14878,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="243" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="243" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B243" t="s">
         <v>265</v>
       </c>
@@ -14200,7 +14917,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="244" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="244" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B244" t="s">
         <v>266</v>
       </c>
@@ -14239,7 +14956,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="245" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="245" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B245" t="s">
         <v>267</v>
       </c>
@@ -14278,7 +14995,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="246" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="246" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B246" t="s">
         <v>268</v>
       </c>
@@ -14317,7 +15034,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="247" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="247" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B247" t="s">
         <v>269</v>
       </c>
@@ -14356,7 +15073,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="248" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="248" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B248" t="s">
         <v>270</v>
       </c>
@@ -14395,7 +15112,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="249" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="249" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B249" t="s">
         <v>271</v>
       </c>
@@ -14434,7 +15151,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="250" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="250" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B250" t="s">
         <v>272</v>
       </c>
@@ -14473,7 +15190,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="251" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="251" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B251" t="s">
         <v>273</v>
       </c>
@@ -14512,7 +15229,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="252" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="252" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B252" t="s">
         <v>274</v>
       </c>
@@ -14551,7 +15268,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="253" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="253" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B253" t="s">
         <v>275</v>
       </c>
@@ -14590,7 +15307,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="254" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="254" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B254" t="s">
         <v>276</v>
       </c>
@@ -14629,7 +15346,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="255" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="255" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B255" t="s">
         <v>277</v>
       </c>
@@ -14668,7 +15385,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="256" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="256" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B256" t="s">
         <v>278</v>
       </c>
@@ -14707,7 +15424,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="257" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="257" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B257" t="s">
         <v>279</v>
       </c>
@@ -14746,7 +15463,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="258" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="258" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B258" t="s">
         <v>280</v>
       </c>
@@ -14785,7 +15502,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="259" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="259" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B259" t="s">
         <v>281</v>
       </c>
@@ -14824,7 +15541,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="260" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="260" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B260" t="s">
         <v>282</v>
       </c>
@@ -14863,7 +15580,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="261" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="261" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B261" t="s">
         <v>283</v>
       </c>
@@ -14902,7 +15619,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="262" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="262" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B262" t="s">
         <v>284</v>
       </c>
@@ -14941,7 +15658,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="263" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="263" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B263" t="s">
         <v>285</v>
       </c>
@@ -14980,7 +15697,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="264" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="264" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B264" t="s">
         <v>286</v>
       </c>
@@ -15019,7 +15736,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="265" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="265" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B265" t="s">
         <v>287</v>
       </c>
@@ -15058,7 +15775,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="266" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="266" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B266" t="s">
         <v>288</v>
       </c>
@@ -15097,7 +15814,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="267" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="267" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B267" t="s">
         <v>289</v>
       </c>
@@ -15136,7 +15853,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="268" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="268" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B268" t="s">
         <v>290</v>
       </c>
@@ -15175,7 +15892,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="269" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="269" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B269" t="s">
         <v>291</v>
       </c>
@@ -15214,7 +15931,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="270" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="270" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B270" t="s">
         <v>292</v>
       </c>
@@ -15253,7 +15970,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="271" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="271" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B271" t="s">
         <v>293</v>
       </c>
@@ -15292,7 +16009,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="272" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="272" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B272" t="s">
         <v>294</v>
       </c>
@@ -15331,7 +16048,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="273" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="273" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B273" t="s">
         <v>295</v>
       </c>
@@ -15370,7 +16087,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="274" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="274" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B274" t="s">
         <v>296</v>
       </c>
@@ -15409,7 +16126,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="275" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="275" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B275" t="s">
         <v>297</v>
       </c>
@@ -15448,7 +16165,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="276" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="276" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B276" t="s">
         <v>298</v>
       </c>
@@ -15487,7 +16204,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="277" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="277" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B277" t="s">
         <v>299</v>
       </c>
@@ -15526,7 +16243,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="278" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="278" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B278" t="s">
         <v>300</v>
       </c>
@@ -15565,7 +16282,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="279" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="279" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B279" t="s">
         <v>301</v>
       </c>
@@ -15604,7 +16321,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="280" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="280" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B280" t="s">
         <v>302</v>
       </c>
@@ -15643,7 +16360,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="281" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="281" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B281" t="s">
         <v>303</v>
       </c>
@@ -15682,7 +16399,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="282" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="282" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B282" t="s">
         <v>304</v>
       </c>
@@ -15721,7 +16438,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="283" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="283" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B283" t="s">
         <v>305</v>
       </c>
@@ -15760,7 +16477,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="284" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="284" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B284" t="s">
         <v>306</v>
       </c>
@@ -15799,7 +16516,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="285" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="285" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B285" t="s">
         <v>307</v>
       </c>
@@ -15838,7 +16555,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="286" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="286" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B286" t="s">
         <v>308</v>
       </c>
@@ -15877,7 +16594,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="287" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="287" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B287" t="s">
         <v>309</v>
       </c>
@@ -15916,7 +16633,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="288" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="288" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B288" t="s">
         <v>310</v>
       </c>
@@ -15955,7 +16672,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="289" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="289" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B289" t="s">
         <v>311</v>
       </c>
@@ -15994,7 +16711,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="290" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="290" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B290" t="s">
         <v>312</v>
       </c>
@@ -16033,7 +16750,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="291" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="291" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B291" t="s">
         <v>313</v>
       </c>
@@ -16072,7 +16789,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="292" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="292" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B292" t="s">
         <v>314</v>
       </c>
@@ -16111,7 +16828,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="293" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="293" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B293" t="s">
         <v>315</v>
       </c>
@@ -16150,7 +16867,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="294" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="294" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B294" t="s">
         <v>316</v>
       </c>
@@ -16189,7 +16906,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="295" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="295" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B295" t="s">
         <v>317</v>
       </c>
@@ -16228,7 +16945,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="296" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="296" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B296" t="s">
         <v>318</v>
       </c>
@@ -16267,7 +16984,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="297" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="297" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B297" t="s">
         <v>319</v>
       </c>
@@ -16306,7 +17023,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="298" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="298" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B298" t="s">
         <v>320</v>
       </c>
@@ -16345,7 +17062,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="299" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="299" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B299" t="s">
         <v>321</v>
       </c>
@@ -16384,7 +17101,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="300" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="300" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B300" t="s">
         <v>322</v>
       </c>
@@ -16423,7 +17140,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="301" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="301" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B301" t="s">
         <v>323</v>
       </c>
@@ -16462,7 +17179,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="302" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="302" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B302" t="s">
         <v>324</v>
       </c>
@@ -16501,7 +17218,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="303" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="303" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B303" t="s">
         <v>325</v>
       </c>
@@ -16540,7 +17257,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="304" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="304" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B304" t="s">
         <v>326</v>
       </c>
@@ -16579,7 +17296,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="305" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="305" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B305" t="s">
         <v>327</v>
       </c>
@@ -16618,7 +17335,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="306" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="306" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B306" t="s">
         <v>328</v>
       </c>
@@ -16657,7 +17374,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="307" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="307" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B307" t="s">
         <v>329</v>
       </c>
@@ -16696,7 +17413,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="308" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="308" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B308" t="s">
         <v>330</v>
       </c>
@@ -16735,7 +17452,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="309" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="309" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B309" t="s">
         <v>331</v>
       </c>
@@ -16774,7 +17491,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="310" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="310" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B310" t="s">
         <v>332</v>
       </c>
@@ -16813,7 +17530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="311" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B311" t="s">
         <v>333</v>
       </c>
@@ -16852,7 +17569,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="312" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="312" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B312" t="s">
         <v>334</v>
       </c>
@@ -16891,7 +17608,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="313" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="313" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B313" t="s">
         <v>335</v>
       </c>
@@ -16930,7 +17647,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="314" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="314" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B314" t="s">
         <v>336</v>
       </c>
@@ -16969,7 +17686,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="315" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="315" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B315" t="s">
         <v>337</v>
       </c>
@@ -17008,7 +17725,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="316" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="316" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B316" t="s">
         <v>338</v>
       </c>
@@ -17047,7 +17764,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="317" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="317" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B317" t="s">
         <v>339</v>
       </c>
@@ -17086,7 +17803,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="318" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="318" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B318" t="s">
         <v>340</v>
       </c>
@@ -17125,7 +17842,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="319" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="319" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B319" t="s">
         <v>341</v>
       </c>
@@ -17164,7 +17881,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="320" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="320" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B320" t="s">
         <v>342</v>
       </c>
@@ -17203,7 +17920,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="321" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="321" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B321" t="s">
         <v>343</v>
       </c>
@@ -17242,7 +17959,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="322" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="322" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B322" t="s">
         <v>344</v>
       </c>
@@ -17281,7 +17998,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="323" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="323" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B323" t="s">
         <v>345</v>
       </c>
@@ -17320,7 +18037,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="324" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="324" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B324" t="s">
         <v>346</v>
       </c>
@@ -17359,7 +18076,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="325" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="325" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B325" t="s">
         <v>347</v>
       </c>
@@ -17398,7 +18115,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="326" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="326" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B326" t="s">
         <v>348</v>
       </c>
@@ -17437,7 +18154,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="327" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="327" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B327" t="s">
         <v>349</v>
       </c>
@@ -17476,7 +18193,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="328" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="328" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B328" t="s">
         <v>350</v>
       </c>
@@ -17515,7 +18232,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="329" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="329" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B329" t="s">
         <v>351</v>
       </c>
@@ -17554,7 +18271,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="330" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="330" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B330" t="s">
         <v>352</v>
       </c>
@@ -17593,7 +18310,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="331" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="331" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B331" t="s">
         <v>353</v>
       </c>
@@ -17632,7 +18349,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="332" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="332" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B332" t="s">
         <v>354</v>
       </c>
@@ -17671,7 +18388,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="333" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="333" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B333" t="s">
         <v>355</v>
       </c>
@@ -17710,7 +18427,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="334" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="334" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B334" t="s">
         <v>356</v>
       </c>
@@ -17749,7 +18466,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="335" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="335" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B335" t="s">
         <v>357</v>
       </c>
@@ -17788,7 +18505,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="336" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="336" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B336" t="s">
         <v>358</v>
       </c>
@@ -17827,7 +18544,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="337" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="337" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B337" t="s">
         <v>359</v>
       </c>
@@ -17866,7 +18583,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="338" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="338" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B338" t="s">
         <v>360</v>
       </c>
@@ -17905,7 +18622,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="339" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="339" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B339" t="s">
         <v>361</v>
       </c>
@@ -17944,7 +18661,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="340" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="340" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B340" t="s">
         <v>362</v>
       </c>
@@ -17983,7 +18700,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="341" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="341" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B341" t="s">
         <v>363</v>
       </c>
@@ -18022,7 +18739,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="342" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="342" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B342" t="s">
         <v>364</v>
       </c>
@@ -18061,7 +18778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="343" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="343" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B343" t="s">
         <v>365</v>
       </c>
@@ -18100,7 +18817,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="344" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="344" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B344" t="s">
         <v>366</v>
       </c>
@@ -18139,7 +18856,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="345" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="345" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B345" t="s">
         <v>367</v>
       </c>
@@ -18178,7 +18895,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="346" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="346" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B346" t="s">
         <v>368</v>
       </c>
@@ -18217,7 +18934,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="347" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="347" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B347" t="s">
         <v>369</v>
       </c>
@@ -18256,7 +18973,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="348" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="348" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B348" t="s">
         <v>370</v>
       </c>
@@ -18295,7 +19012,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="349" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="349" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B349" t="s">
         <v>371</v>
       </c>
@@ -18334,7 +19051,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="350" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="350" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B350" t="s">
         <v>372</v>
       </c>
@@ -18373,7 +19090,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="351" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="351" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B351" t="s">
         <v>373</v>
       </c>
@@ -18412,7 +19129,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="352" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="352" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B352" t="s">
         <v>374</v>
       </c>
@@ -18451,7 +19168,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="353" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="353" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B353" t="s">
         <v>375</v>
       </c>
@@ -18490,7 +19207,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="354" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="354" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B354" t="s">
         <v>376</v>
       </c>
@@ -18529,7 +19246,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="355" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="355" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B355" t="s">
         <v>377</v>
       </c>
@@ -18568,7 +19285,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="356" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="356" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B356" t="s">
         <v>378</v>
       </c>
@@ -18607,7 +19324,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="357" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="357" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B357" t="s">
         <v>379</v>
       </c>
@@ -18646,7 +19363,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="358" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="358" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B358" t="s">
         <v>380</v>
       </c>
@@ -18685,7 +19402,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="359" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="359" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B359" t="s">
         <v>381</v>
       </c>
@@ -18724,7 +19441,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="360" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="360" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B360" t="s">
         <v>382</v>
       </c>
@@ -18763,7 +19480,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="361" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="361" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B361" t="s">
         <v>383</v>
       </c>
@@ -18802,7 +19519,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="362" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="362" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B362" t="s">
         <v>384</v>
       </c>
@@ -18841,7 +19558,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="363" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="363" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B363" t="s">
         <v>385</v>
       </c>
@@ -18880,7 +19597,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="364" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="364" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B364" t="s">
         <v>386</v>
       </c>
@@ -18919,7 +19636,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="365" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="365" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B365" t="s">
         <v>387</v>
       </c>
@@ -18958,7 +19675,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="366" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="366" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B366" t="s">
         <v>388</v>
       </c>
@@ -18997,7 +19714,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="367" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="367" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B367" t="s">
         <v>389</v>
       </c>
@@ -19036,7 +19753,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="368" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="368" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B368" t="s">
         <v>390</v>
       </c>
@@ -19075,7 +19792,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="369" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="369" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B369" t="s">
         <v>391</v>
       </c>
@@ -19114,7 +19831,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="370" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="370" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B370" t="s">
         <v>392</v>
       </c>
@@ -19153,7 +19870,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="371" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="371" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B371" t="s">
         <v>393</v>
       </c>
@@ -19192,7 +19909,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="372" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="372" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B372" t="s">
         <v>394</v>
       </c>
@@ -19231,7 +19948,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="373" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="373" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B373" t="s">
         <v>395</v>
       </c>
@@ -19270,7 +19987,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="374" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="374" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B374" t="s">
         <v>396</v>
       </c>
@@ -19309,7 +20026,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="375" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="375" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B375" t="s">
         <v>397</v>
       </c>
@@ -19348,7 +20065,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="376" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="376" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B376" t="s">
         <v>398</v>
       </c>
@@ -19387,7 +20104,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="377" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="377" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B377" t="s">
         <v>399</v>
       </c>
@@ -19426,7 +20143,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="378" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="378" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B378" t="s">
         <v>400</v>
       </c>
@@ -19465,7 +20182,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="379" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="379" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B379" t="s">
         <v>401</v>
       </c>
@@ -19504,7 +20221,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="380" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="380" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B380" t="s">
         <v>402</v>
       </c>
@@ -19543,7 +20260,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="381" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="381" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B381" t="s">
         <v>403</v>
       </c>
@@ -19582,7 +20299,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="382" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="382" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B382" t="s">
         <v>404</v>
       </c>
@@ -19621,7 +20338,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="383" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="383" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B383" t="s">
         <v>405</v>
       </c>
@@ -19660,7 +20377,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="384" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="384" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B384" t="s">
         <v>406</v>
       </c>
@@ -19699,7 +20416,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="385" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="385" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B385" t="s">
         <v>407</v>
       </c>
@@ -19738,7 +20455,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="386" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="386" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B386" t="s">
         <v>408</v>
       </c>
@@ -19777,7 +20494,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="387" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="387" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B387" t="s">
         <v>409</v>
       </c>
@@ -19816,7 +20533,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="388" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="388" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B388" t="s">
         <v>410</v>
       </c>
@@ -19855,7 +20572,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="389" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="389" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B389" t="s">
         <v>411</v>
       </c>
@@ -19894,7 +20611,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="390" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="390" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B390" t="s">
         <v>412</v>
       </c>
@@ -19933,7 +20650,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="391" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="391" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B391" t="s">
         <v>413</v>
       </c>
@@ -19972,7 +20689,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="392" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="392" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B392" t="s">
         <v>414</v>
       </c>
@@ -20011,7 +20728,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="393" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="393" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B393" t="s">
         <v>415</v>
       </c>
@@ -20050,7 +20767,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="394" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="394" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B394" t="s">
         <v>416</v>
       </c>
@@ -20089,7 +20806,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="395" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="395" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B395" t="s">
         <v>417</v>
       </c>
@@ -20128,7 +20845,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="396" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="396" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B396" t="s">
         <v>418</v>
       </c>
@@ -20167,7 +20884,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="397" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="397" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B397" t="s">
         <v>419</v>
       </c>
@@ -20206,7 +20923,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="398" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="398" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B398" t="s">
         <v>420</v>
       </c>
@@ -20245,7 +20962,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="399" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="399" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B399" t="s">
         <v>421</v>
       </c>
@@ -20284,7 +21001,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="400" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="400" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B400" t="s">
         <v>422</v>
       </c>
@@ -20323,7 +21040,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="401" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="401" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B401" t="s">
         <v>423</v>
       </c>
@@ -20362,7 +21079,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="402" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="402" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B402" t="s">
         <v>424</v>
       </c>
@@ -20401,7 +21118,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="403" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="403" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B403" t="s">
         <v>425</v>
       </c>
@@ -20440,7 +21157,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="404" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="404" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B404" t="s">
         <v>426</v>
       </c>
@@ -20479,7 +21196,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="405" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="405" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B405" t="s">
         <v>427</v>
       </c>
@@ -20518,7 +21235,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="406" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="406" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B406" t="s">
         <v>428</v>
       </c>
@@ -20557,7 +21274,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="407" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="407" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B407" t="s">
         <v>429</v>
       </c>
@@ -20596,7 +21313,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="408" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="408" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B408" t="s">
         <v>430</v>
       </c>
@@ -20635,7 +21352,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="409" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="409" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B409" t="s">
         <v>431</v>
       </c>
@@ -20674,7 +21391,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="410" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="410" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B410" t="s">
         <v>432</v>
       </c>
@@ -20713,7 +21430,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="411" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="411" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B411" t="s">
         <v>433</v>
       </c>
@@ -20752,7 +21469,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="412" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="412" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B412" t="s">
         <v>434</v>
       </c>
@@ -20791,7 +21508,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="413" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="413" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B413" t="s">
         <v>435</v>
       </c>
@@ -20830,7 +21547,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="414" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="414" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B414" t="s">
         <v>436</v>
       </c>
@@ -20869,7 +21586,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="415" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="415" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B415" t="s">
         <v>437</v>
       </c>
@@ -20908,7 +21625,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="416" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="416" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B416" t="s">
         <v>438</v>
       </c>
@@ -20947,7 +21664,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="417" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="417" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B417" t="s">
         <v>439</v>
       </c>
@@ -20986,7 +21703,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="418" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="418" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B418" t="s">
         <v>440</v>
       </c>
@@ -21025,7 +21742,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="419" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="419" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B419" t="s">
         <v>441</v>
       </c>
@@ -21064,7 +21781,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="420" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="420" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B420" t="s">
         <v>442</v>
       </c>
@@ -21103,7 +21820,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="421" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="421" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B421" t="s">
         <v>443</v>
       </c>
@@ -21142,7 +21859,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="422" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="422" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B422" t="s">
         <v>444</v>
       </c>
@@ -21181,7 +21898,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="423" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="423" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B423" t="s">
         <v>445</v>
       </c>
@@ -21220,7 +21937,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="424" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="424" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B424" t="s">
         <v>446</v>
       </c>
@@ -21259,7 +21976,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="425" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="425" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B425" t="s">
         <v>447</v>
       </c>
@@ -21298,7 +22015,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="426" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="426" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B426" t="s">
         <v>448</v>
       </c>
@@ -21337,7 +22054,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="427" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="427" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B427" t="s">
         <v>449</v>
       </c>
@@ -21376,7 +22093,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="428" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="428" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B428" t="s">
         <v>450</v>
       </c>
@@ -21415,7 +22132,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="429" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="429" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B429" t="s">
         <v>451</v>
       </c>
@@ -21454,7 +22171,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="430" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="430" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B430" t="s">
         <v>452</v>
       </c>
@@ -21493,7 +22210,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="431" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="431" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B431" t="s">
         <v>453</v>
       </c>
@@ -21532,7 +22249,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="432" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="432" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B432" t="s">
         <v>454</v>
       </c>
@@ -21571,7 +22288,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="433" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="433" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B433" t="s">
         <v>455</v>
       </c>
@@ -21610,7 +22327,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="434" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="434" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B434" t="s">
         <v>456</v>
       </c>
@@ -21649,7 +22366,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="435" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="435" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B435" t="s">
         <v>457</v>
       </c>
@@ -21688,7 +22405,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="436" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="436" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B436" t="s">
         <v>458</v>
       </c>
@@ -21727,7 +22444,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="437" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="437" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B437" t="s">
         <v>459</v>
       </c>
@@ -21766,7 +22483,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="438" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="438" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B438" t="s">
         <v>460</v>
       </c>
@@ -21805,7 +22522,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="439" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="439" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B439" t="s">
         <v>461</v>
       </c>
@@ -21844,7 +22561,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="440" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="440" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B440" t="s">
         <v>462</v>
       </c>
@@ -21883,7 +22600,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="441" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="441" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B441" t="s">
         <v>463</v>
       </c>
@@ -21922,7 +22639,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="442" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="442" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B442" t="s">
         <v>464</v>
       </c>
@@ -21961,7 +22678,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="443" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="443" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B443" t="s">
         <v>465</v>
       </c>
@@ -22000,7 +22717,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="444" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="444" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B444" t="s">
         <v>466</v>
       </c>
@@ -22039,7 +22756,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="445" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="445" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B445" t="s">
         <v>467</v>
       </c>
@@ -22078,7 +22795,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="446" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="446" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B446" t="s">
         <v>468</v>
       </c>
@@ -22117,7 +22834,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="447" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="447" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B447" t="s">
         <v>469</v>
       </c>
@@ -22156,7 +22873,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="448" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="448" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B448" t="s">
         <v>470</v>
       </c>
@@ -22195,7 +22912,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="449" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="449" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B449" t="s">
         <v>471</v>
       </c>
@@ -22234,7 +22951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="450" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B450" t="s">
         <v>472</v>
       </c>
@@ -22273,7 +22990,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="451" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="451" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B451" t="s">
         <v>473</v>
       </c>
@@ -22312,7 +23029,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="452" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="452" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B452" t="s">
         <v>474</v>
       </c>
@@ -22351,7 +23068,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="453" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="453" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B453" t="s">
         <v>475</v>
       </c>
@@ -22390,7 +23107,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="454" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="454" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B454" t="s">
         <v>476</v>
       </c>
@@ -22429,7 +23146,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="455" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="455" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B455" t="s">
         <v>477</v>
       </c>
@@ -22468,7 +23185,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="456" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="456" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B456" t="s">
         <v>478</v>
       </c>
@@ -22507,7 +23224,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="457" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="457" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B457" t="s">
         <v>479</v>
       </c>
@@ -22546,7 +23263,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="458" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="458" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B458" t="s">
         <v>480</v>
       </c>
@@ -22585,7 +23302,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="459" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="459" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B459" t="s">
         <v>481</v>
       </c>
@@ -22624,7 +23341,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="460" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="460" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B460" t="s">
         <v>482</v>
       </c>
@@ -22663,7 +23380,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="461" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="461" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B461" t="s">
         <v>483</v>
       </c>
@@ -22702,7 +23419,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="462" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="462" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B462" t="s">
         <v>484</v>
       </c>
@@ -22741,7 +23458,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="463" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="463" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B463" t="s">
         <v>485</v>
       </c>
@@ -22780,7 +23497,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="464" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="464" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B464" t="s">
         <v>486</v>
       </c>
@@ -22819,7 +23536,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="465" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="465" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B465" t="s">
         <v>487</v>
       </c>
@@ -22858,7 +23575,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="466" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="466" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B466" t="s">
         <v>488</v>
       </c>
@@ -22897,7 +23614,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="467" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="467" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B467" t="s">
         <v>489</v>
       </c>
@@ -22936,7 +23653,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="468" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="468" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B468" t="s">
         <v>490</v>
       </c>
@@ -22975,7 +23692,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="469" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="469" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B469" t="s">
         <v>491</v>
       </c>
@@ -23014,7 +23731,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="470" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="470" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B470" t="s">
         <v>492</v>
       </c>
@@ -23053,7 +23770,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="471" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="471" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B471" t="s">
         <v>493</v>
       </c>
@@ -23092,7 +23809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="472" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B472" t="s">
         <v>494</v>
       </c>
@@ -23131,7 +23848,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="473" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="473" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B473" t="s">
         <v>495</v>
       </c>
@@ -23170,7 +23887,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="474" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="474" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B474" t="s">
         <v>496</v>
       </c>
@@ -23209,7 +23926,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="475" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="475" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B475" t="s">
         <v>497</v>
       </c>
@@ -23248,7 +23965,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="476" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="476" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B476" t="s">
         <v>498</v>
       </c>
@@ -23287,7 +24004,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="477" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="477" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B477" t="s">
         <v>499</v>
       </c>
@@ -23326,7 +24043,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="478" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="478" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B478" t="s">
         <v>500</v>
       </c>
@@ -23365,7 +24082,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="479" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="479" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B479" t="s">
         <v>501</v>
       </c>
@@ -23404,7 +24121,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="480" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="480" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B480" t="s">
         <v>502</v>
       </c>
@@ -23443,7 +24160,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="481" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="481" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B481" t="s">
         <v>503</v>
       </c>
@@ -23482,7 +24199,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="482" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="482" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B482" t="s">
         <v>504</v>
       </c>
@@ -23521,7 +24238,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="483" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="483" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B483" t="s">
         <v>505</v>
       </c>
@@ -23560,7 +24277,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="484" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="484" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B484" t="s">
         <v>506</v>
       </c>
@@ -23599,7 +24316,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="485" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="485" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B485" t="s">
         <v>507</v>
       </c>
@@ -23638,7 +24355,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="486" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="486" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B486" t="s">
         <v>508</v>
       </c>
@@ -23677,7 +24394,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="487" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="487" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B487" t="s">
         <v>509</v>
       </c>
@@ -23716,7 +24433,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="488" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="488" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B488" t="s">
         <v>510</v>
       </c>
@@ -23755,7 +24472,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="489" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="489" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B489" t="s">
         <v>511</v>
       </c>
@@ -23794,7 +24511,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="490" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="490" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B490" t="s">
         <v>512</v>
       </c>
@@ -23833,7 +24550,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="491" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="491" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B491" t="s">
         <v>513</v>
       </c>
@@ -23872,7 +24589,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="492" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="492" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B492" t="s">
         <v>514</v>
       </c>
@@ -23911,7 +24628,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="493" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="493" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B493" t="s">
         <v>515</v>
       </c>
@@ -23950,7 +24667,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="494" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="494" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B494" t="s">
         <v>516</v>
       </c>
@@ -23989,7 +24706,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="495" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="495" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B495" t="s">
         <v>517</v>
       </c>
@@ -24028,7 +24745,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="496" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="496" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B496" t="s">
         <v>518</v>
       </c>
@@ -24067,7 +24784,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="497" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="497" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B497" t="s">
         <v>519</v>
       </c>
@@ -24106,7 +24823,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="498" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="498" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B498" t="s">
         <v>520</v>
       </c>
@@ -24145,7 +24862,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="499" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="499" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B499" t="s">
         <v>521</v>
       </c>
@@ -24184,7 +24901,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="500" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="500" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B500" t="s">
         <v>522</v>
       </c>
@@ -24223,7 +24940,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="501" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="501" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B501" t="s">
         <v>523</v>
       </c>
@@ -24262,7 +24979,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="502" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="502" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B502" t="s">
         <v>524</v>
       </c>
@@ -24301,7 +25018,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="503" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="503" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B503" t="s">
         <v>525</v>
       </c>
@@ -24340,7 +25057,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="504" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="504" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B504" t="s">
         <v>526</v>
       </c>
@@ -24379,7 +25096,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="505" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="505" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B505" t="s">
         <v>527</v>
       </c>
@@ -24418,7 +25135,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="506" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="506" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B506" t="s">
         <v>528</v>
       </c>
@@ -24457,7 +25174,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="507" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="507" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B507" t="s">
         <v>529</v>
       </c>
@@ -24496,7 +25213,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="508" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="508" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B508" t="s">
         <v>530</v>
       </c>
@@ -24535,7 +25252,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="509" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="509" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B509" t="s">
         <v>531</v>
       </c>
@@ -24574,7 +25291,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="510" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="510" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B510" t="s">
         <v>532</v>
       </c>
@@ -24613,7 +25330,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="511" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="511" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B511" t="s">
         <v>533</v>
       </c>
@@ -24652,7 +25369,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="512" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="512" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B512" t="s">
         <v>534</v>
       </c>
@@ -24691,7 +25408,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="513" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="513" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B513" t="s">
         <v>535</v>
       </c>
@@ -24730,7 +25447,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="514" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="514" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B514" t="s">
         <v>536</v>
       </c>
@@ -24769,7 +25486,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="515" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="515" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B515" t="s">
         <v>537</v>
       </c>
@@ -24808,7 +25525,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="516" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="516" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B516" t="s">
         <v>538</v>
       </c>
@@ -24847,7 +25564,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="517" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="517" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B517" t="s">
         <v>539</v>
       </c>
@@ -24886,7 +25603,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="518" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="518" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B518" t="s">
         <v>540</v>
       </c>
@@ -24925,7 +25642,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="519" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="519" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B519" t="s">
         <v>541</v>
       </c>
@@ -24964,7 +25681,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="520" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="520" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B520" t="s">
         <v>542</v>
       </c>
@@ -25003,7 +25720,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="521" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="521" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B521" t="s">
         <v>543</v>
       </c>
@@ -25042,7 +25759,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="522" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="522" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B522" t="s">
         <v>544</v>
       </c>
@@ -25081,7 +25798,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="523" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="523" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B523" t="s">
         <v>545</v>
       </c>
@@ -25120,7 +25837,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="524" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="524" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B524" t="s">
         <v>546</v>
       </c>
@@ -25159,7 +25876,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="525" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="525" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B525" t="s">
         <v>547</v>
       </c>
@@ -25198,7 +25915,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="526" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="526" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B526" t="s">
         <v>548</v>
       </c>
@@ -25237,7 +25954,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="527" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="527" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B527" t="s">
         <v>549</v>
       </c>
@@ -25276,7 +25993,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="528" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="528" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B528" t="s">
         <v>550</v>
       </c>
@@ -25315,7 +26032,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="529" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="529" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B529" t="s">
         <v>551</v>
       </c>
@@ -25354,7 +26071,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="530" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="530" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B530" t="s">
         <v>552</v>
       </c>
@@ -25393,7 +26110,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="531" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="531" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B531" t="s">
         <v>553</v>
       </c>
@@ -25432,7 +26149,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="532" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="532" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B532" t="s">
         <v>554</v>
       </c>
@@ -25471,7 +26188,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="533" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="533" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B533" t="s">
         <v>555</v>
       </c>
@@ -25510,7 +26227,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="534" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="534" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B534" t="s">
         <v>556</v>
       </c>
@@ -25549,7 +26266,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="535" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="535" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B535" t="s">
         <v>557</v>
       </c>
@@ -25588,7 +26305,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="536" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="536" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B536" t="s">
         <v>558</v>
       </c>
@@ -25627,7 +26344,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="537" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="537" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B537" t="s">
         <v>559</v>
       </c>
@@ -25666,7 +26383,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="538" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="538" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B538" t="s">
         <v>560</v>
       </c>
@@ -25705,7 +26422,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="539" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="539" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B539" t="s">
         <v>561</v>
       </c>
@@ -25744,7 +26461,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="540" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="540" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B540" t="s">
         <v>562</v>
       </c>
@@ -25783,7 +26500,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="541" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="541" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B541" t="s">
         <v>563</v>
       </c>
@@ -25822,7 +26539,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="542" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="542" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B542" t="s">
         <v>564</v>
       </c>
@@ -25861,7 +26578,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="543" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="543" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B543" t="s">
         <v>565</v>
       </c>
@@ -25900,7 +26617,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="544" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="544" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B544" t="s">
         <v>566</v>
       </c>
@@ -25939,7 +26656,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="545" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="545" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B545" t="s">
         <v>567</v>
       </c>
@@ -25978,7 +26695,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="546" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="546" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B546" t="s">
         <v>568</v>
       </c>
@@ -26017,7 +26734,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="547" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="547" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B547" t="s">
         <v>569</v>
       </c>
@@ -26056,7 +26773,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="548" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="548" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B548" t="s">
         <v>570</v>
       </c>
@@ -26095,7 +26812,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="549" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="549" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B549" t="s">
         <v>571</v>
       </c>
@@ -26134,7 +26851,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="550" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="550" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B550" t="s">
         <v>572</v>
       </c>
@@ -26173,7 +26890,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="551" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="551" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B551" t="s">
         <v>573</v>
       </c>
@@ -26212,7 +26929,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="552" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="552" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B552" t="s">
         <v>574</v>
       </c>
@@ -26251,7 +26968,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="553" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="553" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B553" t="s">
         <v>575</v>
       </c>
@@ -26290,7 +27007,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="554" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="554" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B554" t="s">
         <v>576</v>
       </c>
@@ -26329,7 +27046,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="555" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="555" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B555" t="s">
         <v>577</v>
       </c>
@@ -26368,7 +27085,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="556" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="556" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B556" t="s">
         <v>578</v>
       </c>
@@ -26407,7 +27124,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="557" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="557" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B557" t="s">
         <v>579</v>
       </c>
@@ -26446,7 +27163,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="558" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="558" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B558" t="s">
         <v>580</v>
       </c>
@@ -26485,7 +27202,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="559" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="559" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B559" t="s">
         <v>581</v>
       </c>
@@ -26524,7 +27241,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="560" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="560" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B560" t="s">
         <v>582</v>
       </c>
@@ -26563,7 +27280,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="561" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="561" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B561" t="s">
         <v>583</v>
       </c>
@@ -26602,7 +27319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="562" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="562" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B562" t="s">
         <v>584</v>
       </c>
@@ -26641,7 +27358,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="563" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="563" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B563" t="s">
         <v>585</v>
       </c>
@@ -26680,7 +27397,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="564" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="564" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B564" t="s">
         <v>586</v>
       </c>
@@ -26719,7 +27436,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="565" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="565" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B565" t="s">
         <v>587</v>
       </c>
@@ -26758,7 +27475,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="566" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="566" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B566" t="s">
         <v>588</v>
       </c>
@@ -26797,7 +27514,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="567" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="567" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B567" t="s">
         <v>589</v>
       </c>
@@ -26836,7 +27553,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="568" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="568" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B568" t="s">
         <v>590</v>
       </c>
@@ -26875,7 +27592,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="569" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="569" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B569" t="s">
         <v>591</v>
       </c>
@@ -26914,7 +27631,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="570" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="570" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B570" t="s">
         <v>592</v>
       </c>
@@ -26953,7 +27670,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="571" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="571" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B571" t="s">
         <v>593</v>
       </c>
@@ -26992,7 +27709,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="572" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="572" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B572" t="s">
         <v>594</v>
       </c>
@@ -27031,7 +27748,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="573" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="573" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B573" t="s">
         <v>595</v>
       </c>
@@ -27070,7 +27787,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="574" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="574" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B574" t="s">
         <v>596</v>
       </c>
@@ -27109,7 +27826,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="575" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="575" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B575" t="s">
         <v>597</v>
       </c>
@@ -27148,7 +27865,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="576" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="576" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B576" t="s">
         <v>598</v>
       </c>
@@ -27187,7 +27904,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="577" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="577" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B577" t="s">
         <v>599</v>
       </c>
@@ -27226,7 +27943,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="578" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="578" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B578" t="s">
         <v>600</v>
       </c>
@@ -27265,7 +27982,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="579" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="579" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B579" t="s">
         <v>601</v>
       </c>
@@ -27304,7 +28021,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="580" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="580" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B580" t="s">
         <v>602</v>
       </c>
@@ -27343,7 +28060,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="581" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="581" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B581" t="s">
         <v>603</v>
       </c>
@@ -27382,7 +28099,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="582" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="582" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B582" t="s">
         <v>604</v>
       </c>
@@ -27421,7 +28138,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="583" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="583" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B583" t="s">
         <v>605</v>
       </c>
@@ -27460,7 +28177,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="584" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="584" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B584" t="s">
         <v>606</v>
       </c>
@@ -27499,7 +28216,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="585" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="585" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B585" t="s">
         <v>607</v>
       </c>
@@ -27538,7 +28255,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="586" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="586" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B586" t="s">
         <v>608</v>
       </c>
@@ -27577,7 +28294,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="587" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="587" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B587" t="s">
         <v>609</v>
       </c>
@@ -27616,7 +28333,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="588" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="588" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B588" t="s">
         <v>610</v>
       </c>
@@ -27655,7 +28372,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="589" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="589" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B589" t="s">
         <v>611</v>
       </c>
@@ -27694,7 +28411,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="590" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="590" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B590" t="s">
         <v>612</v>
       </c>
@@ -27733,7 +28450,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="591" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="591" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B591" t="s">
         <v>613</v>
       </c>
@@ -27772,7 +28489,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="592" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="592" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B592" t="s">
         <v>614</v>
       </c>
@@ -27811,7 +28528,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="593" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="593" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B593" t="s">
         <v>615</v>
       </c>
@@ -27850,7 +28567,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="594" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="594" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B594" t="s">
         <v>616</v>
       </c>
@@ -27889,7 +28606,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="595" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="595" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B595" t="s">
         <v>617</v>
       </c>
@@ -27928,7 +28645,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="596" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="596" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B596" t="s">
         <v>618</v>
       </c>
@@ -27967,7 +28684,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="597" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="597" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B597" t="s">
         <v>619</v>
       </c>
@@ -28006,7 +28723,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="598" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="598" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B598" t="s">
         <v>620</v>
       </c>
@@ -28045,7 +28762,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="599" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="599" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B599" t="s">
         <v>621</v>
       </c>
@@ -28084,7 +28801,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="600" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="600" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B600" t="s">
         <v>622</v>
       </c>
@@ -28123,7 +28840,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="601" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="601" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B601" t="s">
         <v>623</v>
       </c>
@@ -28162,7 +28879,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="602" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="602" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B602" t="s">
         <v>624</v>
       </c>
@@ -28201,7 +28918,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="603" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="603" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B603" t="s">
         <v>625</v>
       </c>
@@ -28240,7 +28957,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="604" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="604" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B604" t="s">
         <v>626</v>
       </c>
@@ -28279,7 +28996,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="605" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="605" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B605" t="s">
         <v>627</v>
       </c>
@@ -28318,7 +29035,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="606" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="606" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B606" t="s">
         <v>628</v>
       </c>
@@ -28357,7 +29074,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="607" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="607" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B607" t="s">
         <v>629</v>
       </c>
@@ -28396,7 +29113,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="608" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="608" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B608" t="s">
         <v>630</v>
       </c>
@@ -28435,7 +29152,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="609" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="609" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B609" t="s">
         <v>631</v>
       </c>
@@ -28474,7 +29191,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="610" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="610" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B610" t="s">
         <v>632</v>
       </c>
@@ -28513,7 +29230,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="611" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="611" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B611" t="s">
         <v>633</v>
       </c>
@@ -28552,7 +29269,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="612" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="612" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B612" t="s">
         <v>634</v>
       </c>
@@ -28591,7 +29308,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="613" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="613" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B613" t="s">
         <v>635</v>
       </c>
@@ -28630,7 +29347,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="614" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="614" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B614" t="s">
         <v>636</v>
       </c>
@@ -28669,7 +29386,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="615" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="615" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B615" t="s">
         <v>637</v>
       </c>
@@ -28708,7 +29425,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="616" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="616" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B616" t="s">
         <v>638</v>
       </c>
@@ -28747,7 +29464,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="617" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="617" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B617" t="s">
         <v>639</v>
       </c>
@@ -28786,7 +29503,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="618" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="618" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B618" t="s">
         <v>640</v>
       </c>
@@ -28825,7 +29542,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="619" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="619" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B619" t="s">
         <v>641</v>
       </c>
@@ -28864,7 +29581,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="620" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="620" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B620" t="s">
         <v>642</v>
       </c>
@@ -28903,7 +29620,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="621" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="621" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B621" t="s">
         <v>643</v>
       </c>
@@ -28942,7 +29659,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="622" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="622" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B622" t="s">
         <v>644</v>
       </c>
@@ -28981,7 +29698,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="623" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="623" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B623" t="s">
         <v>645</v>
       </c>
@@ -29020,7 +29737,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="624" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="624" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B624" t="s">
         <v>646</v>
       </c>
@@ -29059,7 +29776,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="625" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="625" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B625" t="s">
         <v>647</v>
       </c>
@@ -29098,7 +29815,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="626" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="626" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B626" t="s">
         <v>648</v>
       </c>
@@ -29137,7 +29854,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="627" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="627" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B627" t="s">
         <v>649</v>
       </c>
@@ -29176,7 +29893,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="628" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="628" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B628" t="s">
         <v>650</v>
       </c>
@@ -29215,7 +29932,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="629" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="629" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B629" t="s">
         <v>651</v>
       </c>
@@ -29254,7 +29971,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="630" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="630" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B630" t="s">
         <v>652</v>
       </c>
@@ -29293,7 +30010,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="631" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="631" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B631" t="s">
         <v>653</v>
       </c>
@@ -29332,7 +30049,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="632" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="632" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B632" t="s">
         <v>654</v>
       </c>
@@ -29371,7 +30088,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="633" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="633" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B633" t="s">
         <v>655</v>
       </c>
@@ -29410,7 +30127,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="634" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="634" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B634" t="s">
         <v>656</v>
       </c>
@@ -29449,7 +30166,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="635" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="635" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B635" t="s">
         <v>657</v>
       </c>
@@ -29488,7 +30205,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="636" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="636" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B636" t="s">
         <v>658</v>
       </c>
@@ -29527,7 +30244,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="637" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="637" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B637" t="s">
         <v>659</v>
       </c>
@@ -29566,7 +30283,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="638" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="638" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B638" t="s">
         <v>660</v>
       </c>
@@ -29605,7 +30322,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="639" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="639" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B639" t="s">
         <v>661</v>
       </c>
@@ -29644,7 +30361,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="640" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="640" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B640" t="s">
         <v>662</v>
       </c>
@@ -29683,7 +30400,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="641" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="641" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B641" t="s">
         <v>663</v>
       </c>
@@ -29722,7 +30439,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="642" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="642" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B642" t="s">
         <v>664</v>
       </c>
@@ -29761,7 +30478,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="643" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="643" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B643" t="s">
         <v>665</v>
       </c>
@@ -29800,7 +30517,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="644" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="644" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B644" t="s">
         <v>666</v>
       </c>
@@ -29839,7 +30556,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="645" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="645" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B645" t="s">
         <v>667</v>
       </c>
@@ -29878,7 +30595,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="646" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="646" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B646" t="s">
         <v>668</v>
       </c>
@@ -29917,7 +30634,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="647" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="647" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B647" t="s">
         <v>669</v>
       </c>
@@ -29956,7 +30673,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="648" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="648" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B648" t="s">
         <v>670</v>
       </c>
@@ -29995,7 +30712,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="649" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="649" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B649" t="s">
         <v>671</v>
       </c>
@@ -30034,7 +30751,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="650" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="650" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B650" t="s">
         <v>672</v>
       </c>
@@ -30073,7 +30790,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="651" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="651" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B651" t="s">
         <v>673</v>
       </c>
@@ -30112,7 +30829,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="652" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="652" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B652" t="s">
         <v>674</v>
       </c>
@@ -30151,7 +30868,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="653" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="653" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B653" t="s">
         <v>675</v>
       </c>
@@ -30190,7 +30907,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="654" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="654" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B654" t="s">
         <v>676</v>
       </c>
@@ -30229,7 +30946,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="655" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="655" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B655" t="s">
         <v>677</v>
       </c>
@@ -30268,7 +30985,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="656" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="656" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B656" t="s">
         <v>678</v>
       </c>
@@ -30307,7 +31024,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="657" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="657" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B657" t="s">
         <v>679</v>
       </c>
@@ -30346,7 +31063,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="658" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="658" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B658" t="s">
         <v>680</v>
       </c>
@@ -30385,7 +31102,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="659" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="659" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B659" t="s">
         <v>681</v>
       </c>
@@ -30424,7 +31141,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="660" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="660" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B660" t="s">
         <v>682</v>
       </c>
@@ -30463,7 +31180,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="661" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="661" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B661" t="s">
         <v>683</v>
       </c>
@@ -30502,7 +31219,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="662" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="662" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B662" t="s">
         <v>684</v>
       </c>
@@ -30541,7 +31258,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="663" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="663" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B663" t="s">
         <v>685</v>
       </c>
@@ -30580,7 +31297,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="664" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="664" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B664" t="s">
         <v>686</v>
       </c>
@@ -30619,7 +31336,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="665" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="665" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B665" t="s">
         <v>687</v>
       </c>
@@ -30658,7 +31375,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="666" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="666" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B666" t="s">
         <v>688</v>
       </c>
@@ -30697,7 +31414,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="667" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="667" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B667" t="s">
         <v>689</v>
       </c>
@@ -30736,7 +31453,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="668" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="668" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B668" t="s">
         <v>690</v>
       </c>
@@ -30775,7 +31492,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="669" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="669" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B669" t="s">
         <v>691</v>
       </c>
@@ -30814,7 +31531,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="670" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="670" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B670" t="s">
         <v>692</v>
       </c>
@@ -30853,7 +31570,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="671" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="671" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B671" t="s">
         <v>693</v>
       </c>
@@ -30892,7 +31609,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="672" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="672" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B672" t="s">
         <v>694</v>
       </c>
@@ -30931,7 +31648,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="673" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="673" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B673" t="s">
         <v>695</v>
       </c>
@@ -30970,7 +31687,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="674" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="674" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B674" t="s">
         <v>696</v>
       </c>
@@ -31009,7 +31726,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="675" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="675" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B675" t="s">
         <v>697</v>
       </c>
@@ -31048,7 +31765,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="676" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="676" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B676" t="s">
         <v>698</v>
       </c>
@@ -31087,7 +31804,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="677" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="677" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B677" t="s">
         <v>699</v>
       </c>
@@ -31126,7 +31843,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="678" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="678" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B678" t="s">
         <v>700</v>
       </c>
@@ -31165,7 +31882,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="679" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="679" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B679" t="s">
         <v>701</v>
       </c>
@@ -31204,7 +31921,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="680" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="680" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B680" t="s">
         <v>702</v>
       </c>
@@ -31243,7 +31960,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="681" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="681" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B681" t="s">
         <v>703</v>
       </c>
@@ -31282,7 +31999,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="682" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="682" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B682" t="s">
         <v>704</v>
       </c>
@@ -31321,7 +32038,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="683" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="683" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B683" t="s">
         <v>705</v>
       </c>
@@ -31360,7 +32077,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="684" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="684" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B684" t="s">
         <v>706</v>
       </c>
@@ -31399,7 +32116,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="685" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="685" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B685" t="s">
         <v>707</v>
       </c>
@@ -31438,7 +32155,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="686" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="686" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B686" t="s">
         <v>708</v>
       </c>
@@ -31477,7 +32194,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="687" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="687" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B687" t="s">
         <v>709</v>
       </c>
@@ -31516,7 +32233,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="688" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="688" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B688" t="s">
         <v>710</v>
       </c>
@@ -31555,7 +32272,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="689" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="689" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B689" t="s">
         <v>711</v>
       </c>
@@ -31594,7 +32311,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="690" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="690" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B690" t="s">
         <v>712</v>
       </c>
@@ -31633,7 +32350,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="691" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="691" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B691" t="s">
         <v>713</v>
       </c>
@@ -31672,7 +32389,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="692" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="692" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B692" t="s">
         <v>714</v>
       </c>
@@ -31711,7 +32428,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="693" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="693" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B693" t="s">
         <v>715</v>
       </c>
@@ -31750,7 +32467,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="694" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="694" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B694" t="s">
         <v>716</v>
       </c>
@@ -31789,7 +32506,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="695" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="695" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B695" t="s">
         <v>717</v>
       </c>
@@ -31828,7 +32545,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="696" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="696" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B696" t="s">
         <v>718</v>
       </c>
@@ -31867,7 +32584,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="697" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="697" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B697" t="s">
         <v>719</v>
       </c>
@@ -31906,7 +32623,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="698" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="698" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B698" t="s">
         <v>720</v>
       </c>
@@ -31945,7 +32662,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="699" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="699" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B699" t="s">
         <v>721</v>
       </c>
@@ -31984,7 +32701,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="700" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="700" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B700" t="s">
         <v>722</v>
       </c>
@@ -32023,7 +32740,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="701" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="701" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B701" t="s">
         <v>723</v>
       </c>
@@ -32062,7 +32779,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="702" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="702" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B702" t="s">
         <v>724</v>
       </c>
@@ -32101,7 +32818,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="703" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="703" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B703" t="s">
         <v>725</v>
       </c>
@@ -32140,7 +32857,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="704" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="704" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B704" t="s">
         <v>726</v>
       </c>
@@ -32179,7 +32896,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="705" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="705" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B705" t="s">
         <v>727</v>
       </c>
@@ -32218,7 +32935,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="706" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="706" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B706" t="s">
         <v>728</v>
       </c>
@@ -32257,7 +32974,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="707" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="707" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B707" t="s">
         <v>729</v>
       </c>
@@ -32296,7 +33013,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="708" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="708" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B708" t="s">
         <v>730</v>
       </c>
@@ -32335,7 +33052,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="709" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="709" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B709" t="s">
         <v>731</v>
       </c>
@@ -32374,7 +33091,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="710" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="710" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B710" t="s">
         <v>732</v>
       </c>
@@ -32413,7 +33130,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="711" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="711" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B711" t="s">
         <v>733</v>
       </c>
@@ -32452,7 +33169,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="712" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="712" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B712" t="s">
         <v>734</v>
       </c>
@@ -32491,7 +33208,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="713" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="713" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B713" t="s">
         <v>735</v>
       </c>
@@ -32530,7 +33247,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="714" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="714" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B714" t="s">
         <v>736</v>
       </c>
@@ -32569,7 +33286,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="715" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="715" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B715" t="s">
         <v>737</v>
       </c>
@@ -32608,7 +33325,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="716" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="716" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B716" t="s">
         <v>738</v>
       </c>
@@ -32647,7 +33364,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="717" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="717" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B717" t="s">
         <v>739</v>
       </c>
@@ -32686,7 +33403,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="718" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="718" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B718" t="s">
         <v>740</v>
       </c>
@@ -32725,7 +33442,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="719" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="719" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B719" t="s">
         <v>741</v>
       </c>
@@ -32764,7 +33481,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="720" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="720" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B720" t="s">
         <v>742</v>
       </c>
@@ -32803,7 +33520,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="721" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="721" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B721" t="s">
         <v>743</v>
       </c>
@@ -32842,7 +33559,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="722" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="722" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B722" t="s">
         <v>744</v>
       </c>
@@ -32881,7 +33598,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="723" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="723" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B723" t="s">
         <v>745</v>
       </c>
@@ -32920,7 +33637,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="724" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="724" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B724" t="s">
         <v>746</v>
       </c>
@@ -32959,7 +33676,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="725" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="725" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B725" t="s">
         <v>747</v>
       </c>
@@ -32998,7 +33715,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="726" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="726" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B726" t="s">
         <v>748</v>
       </c>
@@ -33037,7 +33754,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="727" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="727" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B727" t="s">
         <v>749</v>
       </c>
@@ -33076,7 +33793,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="728" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="728" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B728" t="s">
         <v>750</v>
       </c>
@@ -33115,7 +33832,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="729" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="729" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B729" t="s">
         <v>751</v>
       </c>
@@ -33154,7 +33871,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="730" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="730" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B730" t="s">
         <v>752</v>
       </c>
@@ -33193,7 +33910,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="731" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="731" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B731" t="s">
         <v>753</v>
       </c>
@@ -33232,7 +33949,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="732" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="732" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B732" t="s">
         <v>754</v>
       </c>
@@ -33271,7 +33988,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="733" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="733" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B733" t="s">
         <v>755</v>
       </c>
@@ -33310,7 +34027,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="734" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="734" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B734" t="s">
         <v>756</v>
       </c>
@@ -33349,7 +34066,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="735" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="735" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B735" t="s">
         <v>757</v>
       </c>
@@ -33388,7 +34105,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="736" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="736" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B736" t="s">
         <v>758</v>
       </c>
@@ -33427,7 +34144,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="737" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="737" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B737" t="s">
         <v>759</v>
       </c>
@@ -33466,7 +34183,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="738" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="738" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B738" t="s">
         <v>760</v>
       </c>
@@ -33505,7 +34222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="739" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="739" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B739" t="s">
         <v>761</v>
       </c>
@@ -33544,7 +34261,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="740" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="740" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B740" t="s">
         <v>762</v>
       </c>
@@ -33583,7 +34300,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="741" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="741" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B741" t="s">
         <v>763</v>
       </c>
@@ -33622,7 +34339,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="742" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="742" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B742" t="s">
         <v>764</v>
       </c>
@@ -33661,7 +34378,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="743" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="743" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B743" t="s">
         <v>765</v>
       </c>
@@ -33700,7 +34417,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="744" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="744" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B744" t="s">
         <v>766</v>
       </c>
@@ -33739,7 +34456,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="745" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="745" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B745" t="s">
         <v>767</v>
       </c>
@@ -33778,7 +34495,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="746" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="746" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B746" t="s">
         <v>768</v>
       </c>
@@ -33817,7 +34534,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="747" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="747" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B747" t="s">
         <v>769</v>
       </c>
@@ -33856,7 +34573,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="748" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="748" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B748" t="s">
         <v>770</v>
       </c>
@@ -33895,7 +34612,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="749" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="749" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B749" t="s">
         <v>771</v>
       </c>
@@ -33934,7 +34651,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="750" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="750" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B750" t="s">
         <v>772</v>
       </c>
@@ -33973,7 +34690,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="751" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="751" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B751" t="s">
         <v>773</v>
       </c>
@@ -34012,7 +34729,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="752" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="752" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B752" t="s">
         <v>774</v>
       </c>
@@ -34051,7 +34768,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="753" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="753" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B753" t="s">
         <v>775</v>
       </c>
@@ -34090,7 +34807,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="754" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="754" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B754" t="s">
         <v>776</v>
       </c>
@@ -34129,7 +34846,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="755" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="755" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B755" t="s">
         <v>777</v>
       </c>
@@ -34168,7 +34885,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="756" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="756" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B756" t="s">
         <v>778</v>
       </c>
@@ -34207,7 +34924,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="757" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="757" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B757" t="s">
         <v>779</v>
       </c>
@@ -34246,7 +34963,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="758" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="758" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B758" t="s">
         <v>780</v>
       </c>
@@ -34285,7 +35002,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="759" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="759" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B759" t="s">
         <v>781</v>
       </c>
@@ -34324,7 +35041,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="760" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="760" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B760" t="s">
         <v>782</v>
       </c>
@@ -34363,7 +35080,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="761" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="761" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B761" t="s">
         <v>783</v>
       </c>
@@ -34402,7 +35119,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="762" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="762" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B762" t="s">
         <v>784</v>
       </c>
@@ -34441,7 +35158,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="763" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="763" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B763" t="s">
         <v>785</v>
       </c>
@@ -34480,7 +35197,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="764" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="764" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B764" t="s">
         <v>786</v>
       </c>
@@ -34519,7 +35236,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="765" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="765" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B765" t="s">
         <v>787</v>
       </c>
@@ -34558,7 +35275,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="766" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="766" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B766" t="s">
         <v>788</v>
       </c>
@@ -34597,7 +35314,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="767" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="767" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B767" t="s">
         <v>789</v>
       </c>
@@ -34636,7 +35353,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="768" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="768" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B768" t="s">
         <v>790</v>
       </c>
@@ -34675,7 +35392,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="769" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="769" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B769" t="s">
         <v>791</v>
       </c>
@@ -34714,7 +35431,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="770" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="770" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B770" t="s">
         <v>792</v>
       </c>
@@ -34753,7 +35470,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="771" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="771" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B771" t="s">
         <v>793</v>
       </c>
@@ -34792,7 +35509,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="772" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="772" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B772" t="s">
         <v>794</v>
       </c>
@@ -34831,7 +35548,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="773" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="773" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B773" t="s">
         <v>795</v>
       </c>
@@ -34870,7 +35587,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="774" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="774" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B774" t="s">
         <v>796</v>
       </c>
@@ -34909,7 +35626,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="775" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="775" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B775" t="s">
         <v>797</v>
       </c>
@@ -34948,7 +35665,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="776" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="776" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B776" t="s">
         <v>798</v>
       </c>
@@ -34987,7 +35704,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="777" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="777" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B777" t="s">
         <v>799</v>
       </c>
@@ -35026,7 +35743,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="778" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="778" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B778" t="s">
         <v>800</v>
       </c>
@@ -35065,7 +35782,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="779" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="779" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B779" t="s">
         <v>801</v>
       </c>
@@ -35104,7 +35821,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="780" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="780" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B780" t="s">
         <v>802</v>
       </c>
@@ -35143,7 +35860,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="781" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="781" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B781" t="s">
         <v>803</v>
       </c>
@@ -35182,7 +35899,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="782" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="782" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B782" t="s">
         <v>804</v>
       </c>
@@ -35221,7 +35938,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="783" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="783" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B783" t="s">
         <v>805</v>
       </c>
@@ -35260,7 +35977,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="784" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="784" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B784" t="s">
         <v>806</v>
       </c>
@@ -35299,7 +36016,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="785" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="785" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B785" t="s">
         <v>807</v>
       </c>
@@ -35338,7 +36055,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="786" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="786" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B786" t="s">
         <v>808</v>
       </c>
@@ -35377,7 +36094,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="787" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="787" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B787" t="s">
         <v>809</v>
       </c>
@@ -35416,7 +36133,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="788" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="788" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B788" t="s">
         <v>810</v>
       </c>
@@ -35455,7 +36172,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="789" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="789" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B789" t="s">
         <v>811</v>
       </c>
@@ -35494,7 +36211,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="790" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="790" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B790" t="s">
         <v>812</v>
       </c>
@@ -35533,7 +36250,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="791" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="791" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B791" t="s">
         <v>813</v>
       </c>
@@ -35572,7 +36289,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="792" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="792" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B792" t="s">
         <v>814</v>
       </c>
@@ -35611,7 +36328,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="793" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="793" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B793" t="s">
         <v>815</v>
       </c>
@@ -35650,7 +36367,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="794" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="794" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B794" t="s">
         <v>816</v>
       </c>
@@ -35689,7 +36406,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="795" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="795" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B795" t="s">
         <v>817</v>
       </c>
@@ -35728,7 +36445,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="796" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="796" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B796" t="s">
         <v>818</v>
       </c>
@@ -35767,7 +36484,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="797" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="797" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B797" t="s">
         <v>819</v>
       </c>
@@ -35806,7 +36523,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="798" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="798" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B798" t="s">
         <v>820</v>
       </c>
@@ -35845,7 +36562,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="799" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="799" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B799" t="s">
         <v>821</v>
       </c>
@@ -35884,7 +36601,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="800" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="800" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B800" t="s">
         <v>822</v>
       </c>
@@ -35923,7 +36640,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="801" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="801" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B801" t="s">
         <v>823</v>
       </c>
@@ -35962,7 +36679,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="802" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="802" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B802" t="s">
         <v>824</v>
       </c>
@@ -36001,7 +36718,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="803" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="803" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B803" t="s">
         <v>825</v>
       </c>
@@ -36040,7 +36757,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="804" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="804" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B804" t="s">
         <v>826</v>
       </c>
@@ -36079,7 +36796,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="805" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="805" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B805" t="s">
         <v>827</v>
       </c>
@@ -36118,7 +36835,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="806" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="806" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B806" t="s">
         <v>828</v>
       </c>
@@ -36157,7 +36874,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="807" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="807" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B807" t="s">
         <v>829</v>
       </c>
@@ -36196,7 +36913,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="808" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="808" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B808" t="s">
         <v>830</v>
       </c>
@@ -36235,7 +36952,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="809" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="809" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B809" t="s">
         <v>831</v>
       </c>
@@ -36274,7 +36991,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="810" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="810" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B810" t="s">
         <v>832</v>
       </c>
@@ -36313,7 +37030,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="811" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="811" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B811" t="s">
         <v>833</v>
       </c>
@@ -36352,7 +37069,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="812" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="812" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B812" t="s">
         <v>834</v>
       </c>
@@ -36391,7 +37108,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="813" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="813" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B813" t="s">
         <v>835</v>
       </c>
@@ -36430,7 +37147,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="814" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="814" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B814" t="s">
         <v>836</v>
       </c>
@@ -36469,7 +37186,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="815" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="815" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B815" t="s">
         <v>837</v>
       </c>
@@ -36508,7 +37225,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="816" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="816" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B816" t="s">
         <v>838</v>
       </c>
@@ -36547,7 +37264,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="817" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="817" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B817" t="s">
         <v>839</v>
       </c>
@@ -36586,7 +37303,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="818" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="818" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B818" t="s">
         <v>840</v>
       </c>
@@ -36625,7 +37342,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="819" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="819" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B819" t="s">
         <v>841</v>
       </c>
@@ -36664,7 +37381,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="820" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="820" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B820" t="s">
         <v>842</v>
       </c>
@@ -36703,7 +37420,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="821" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="821" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B821" t="s">
         <v>843</v>
       </c>
@@ -36742,7 +37459,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="822" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="822" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B822" t="s">
         <v>844</v>
       </c>
@@ -36781,7 +37498,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="823" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="823" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B823" t="s">
         <v>845</v>
       </c>
@@ -36820,7 +37537,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="824" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="824" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B824" t="s">
         <v>846</v>
       </c>
@@ -36859,7 +37576,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="825" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="825" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B825" t="s">
         <v>847</v>
       </c>
@@ -36898,7 +37615,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="826" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="826" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B826" t="s">
         <v>848</v>
       </c>
@@ -36937,7 +37654,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="827" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="827" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B827" t="s">
         <v>849</v>
       </c>
@@ -36976,7 +37693,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="828" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="828" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B828" t="s">
         <v>850</v>
       </c>
@@ -37015,7 +37732,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="829" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="829" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B829" t="s">
         <v>851</v>
       </c>
@@ -37054,7 +37771,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="830" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="830" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B830" t="s">
         <v>852</v>
       </c>
@@ -37093,7 +37810,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="831" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="831" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B831" t="s">
         <v>853</v>
       </c>
@@ -37132,7 +37849,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="832" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="832" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B832" t="s">
         <v>854</v>
       </c>
@@ -37171,7 +37888,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="833" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="833" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B833" t="s">
         <v>855</v>
       </c>
@@ -37210,7 +37927,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="834" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="834" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B834" t="s">
         <v>856</v>
       </c>
@@ -37249,7 +37966,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="835" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="835" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B835" t="s">
         <v>857</v>
       </c>
@@ -37288,7 +38005,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="836" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="836" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B836" t="s">
         <v>858</v>
       </c>
@@ -37327,7 +38044,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="837" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="837" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B837" t="s">
         <v>859</v>
       </c>
@@ -37366,7 +38083,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="838" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="838" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B838" t="s">
         <v>860</v>
       </c>
@@ -37405,7 +38122,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="839" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="839" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B839" t="s">
         <v>861</v>
       </c>
@@ -37444,7 +38161,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="840" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="840" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B840" t="s">
         <v>862</v>
       </c>
@@ -37483,7 +38200,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="841" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="841" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B841" t="s">
         <v>863</v>
       </c>
@@ -37522,7 +38239,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="842" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="842" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B842" t="s">
         <v>864</v>
       </c>
@@ -37561,7 +38278,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="843" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="843" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B843" t="s">
         <v>865</v>
       </c>
@@ -37600,7 +38317,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="844" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="844" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B844" t="s">
         <v>866</v>
       </c>
@@ -37639,7 +38356,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="845" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="845" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B845" t="s">
         <v>867</v>
       </c>
@@ -37678,7 +38395,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="846" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="846" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B846" t="s">
         <v>868</v>
       </c>
@@ -37717,7 +38434,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="847" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="847" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B847" t="s">
         <v>869</v>
       </c>
@@ -37756,7 +38473,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="848" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="848" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B848" t="s">
         <v>870</v>
       </c>
@@ -37795,7 +38512,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="849" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="849" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B849" t="s">
         <v>871</v>
       </c>
@@ -37834,7 +38551,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="850" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="850" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B850" t="s">
         <v>872</v>
       </c>
@@ -37873,7 +38590,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="851" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="851" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B851" t="s">
         <v>873</v>
       </c>
@@ -37912,7 +38629,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="852" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="852" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B852" t="s">
         <v>874</v>
       </c>
@@ -37951,7 +38668,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="853" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="853" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B853" t="s">
         <v>875</v>
       </c>
@@ -37990,7 +38707,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="854" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="854" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B854" t="s">
         <v>876</v>
       </c>
@@ -38029,7 +38746,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="855" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="855" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B855" t="s">
         <v>877</v>
       </c>
@@ -38068,7 +38785,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="856" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="856" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B856" t="s">
         <v>878</v>
       </c>
@@ -38107,7 +38824,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="857" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="857" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B857" t="s">
         <v>879</v>
       </c>
@@ -38146,7 +38863,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="858" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="858" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B858" t="s">
         <v>880</v>
       </c>
@@ -38185,7 +38902,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="859" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="859" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B859" t="s">
         <v>881</v>
       </c>
@@ -38224,7 +38941,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="860" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="860" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B860" t="s">
         <v>882</v>
       </c>
@@ -38263,7 +38980,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="861" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="861" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B861" t="s">
         <v>883</v>
       </c>
@@ -38302,7 +39019,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="862" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="862" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B862" t="s">
         <v>884</v>
       </c>
@@ -38341,7 +39058,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="863" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="863" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B863" t="s">
         <v>885</v>
       </c>
@@ -38380,7 +39097,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="864" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="864" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B864" t="s">
         <v>886</v>
       </c>
@@ -38419,7 +39136,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="865" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="865" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B865" t="s">
         <v>887</v>
       </c>
@@ -38458,7 +39175,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="866" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="866" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B866" t="s">
         <v>888</v>
       </c>
@@ -38497,7 +39214,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="867" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="867" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B867" t="s">
         <v>889</v>
       </c>
@@ -38536,7 +39253,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="868" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="868" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B868" t="s">
         <v>890</v>
       </c>
@@ -38575,7 +39292,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="869" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="869" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B869" t="s">
         <v>891</v>
       </c>
@@ -38614,7 +39331,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="870" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="870" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B870" t="s">
         <v>892</v>
       </c>
@@ -38653,7 +39370,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="871" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="871" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B871" t="s">
         <v>893</v>
       </c>
@@ -38692,7 +39409,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="872" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="872" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B872" t="s">
         <v>894</v>
       </c>
@@ -38731,7 +39448,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="873" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="873" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B873" t="s">
         <v>895</v>
       </c>
@@ -38770,7 +39487,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="874" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="874" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B874" t="s">
         <v>896</v>
       </c>
@@ -38809,7 +39526,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="875" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="875" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B875" t="s">
         <v>897</v>
       </c>
@@ -38848,7 +39565,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="876" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="876" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B876" t="s">
         <v>898</v>
       </c>
@@ -38887,7 +39604,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="877" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="877" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B877" t="s">
         <v>899</v>
       </c>
@@ -38926,7 +39643,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="878" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="878" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B878" t="s">
         <v>900</v>
       </c>
@@ -38965,7 +39682,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="879" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="879" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B879" t="s">
         <v>901</v>
       </c>
@@ -39004,7 +39721,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="880" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="880" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B880" t="s">
         <v>902</v>
       </c>
@@ -39043,7 +39760,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="881" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="881" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B881" t="s">
         <v>903</v>
       </c>
@@ -39082,7 +39799,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="882" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="882" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B882" t="s">
         <v>904</v>
       </c>
@@ -39121,7 +39838,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="883" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="883" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B883" t="s">
         <v>905</v>
       </c>
@@ -39160,7 +39877,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="884" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="884" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B884" t="s">
         <v>906</v>
       </c>
@@ -39199,7 +39916,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="885" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="885" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B885" t="s">
         <v>907</v>
       </c>
@@ -39238,7 +39955,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="886" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="886" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B886" t="s">
         <v>908</v>
       </c>
@@ -39277,7 +39994,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="887" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="887" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B887" t="s">
         <v>909</v>
       </c>
@@ -39316,7 +40033,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="888" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="888" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B888" t="s">
         <v>910</v>
       </c>
@@ -39355,7 +40072,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="889" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="889" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B889" t="s">
         <v>911</v>
       </c>
@@ -39394,7 +40111,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="890" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="890" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B890" t="s">
         <v>912</v>
       </c>
@@ -39433,7 +40150,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="891" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="891" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B891" t="s">
         <v>913</v>
       </c>
@@ -39472,7 +40189,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="892" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="892" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B892" t="s">
         <v>914</v>
       </c>
@@ -39511,7 +40228,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="893" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="893" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B893" t="s">
         <v>915</v>
       </c>
@@ -39550,7 +40267,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="894" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="894" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B894" t="s">
         <v>916</v>
       </c>
@@ -39589,7 +40306,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="895" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="895" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B895" t="s">
         <v>917</v>
       </c>
@@ -39628,7 +40345,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="896" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="896" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B896" t="s">
         <v>918</v>
       </c>
@@ -39667,7 +40384,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="897" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="897" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B897" t="s">
         <v>919</v>
       </c>
@@ -39706,7 +40423,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="898" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="898" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B898" t="s">
         <v>920</v>
       </c>
@@ -39745,7 +40462,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="899" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="899" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B899" t="s">
         <v>921</v>
       </c>
@@ -39784,7 +40501,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="900" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="900" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B900" t="s">
         <v>922</v>
       </c>
@@ -39823,7 +40540,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="901" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="901" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B901" t="s">
         <v>923</v>
       </c>
@@ -39862,7 +40579,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="902" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="902" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B902" t="s">
         <v>924</v>
       </c>
@@ -39901,7 +40618,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="903" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="903" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B903" t="s">
         <v>925</v>
       </c>
@@ -39940,7 +40657,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="904" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="904" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B904" t="s">
         <v>926</v>
       </c>
@@ -39979,7 +40696,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="905" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="905" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B905" t="s">
         <v>927</v>
       </c>
@@ -40018,7 +40735,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="906" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="906" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B906" t="s">
         <v>928</v>
       </c>
@@ -40057,7 +40774,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="907" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="907" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B907" t="s">
         <v>929</v>
       </c>
@@ -40096,7 +40813,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="908" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="908" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B908" t="s">
         <v>930</v>
       </c>
@@ -40135,7 +40852,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="909" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="909" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B909" t="s">
         <v>931</v>
       </c>
@@ -40174,7 +40891,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="910" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="910" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B910" t="s">
         <v>932</v>
       </c>
@@ -40213,7 +40930,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="911" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="911" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B911" t="s">
         <v>933</v>
       </c>
@@ -40252,7 +40969,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="912" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="912" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B912" t="s">
         <v>934</v>
       </c>
@@ -40291,7 +41008,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="913" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="913" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B913" t="s">
         <v>935</v>
       </c>
@@ -40330,7 +41047,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="914" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="914" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B914" t="s">
         <v>936</v>
       </c>
@@ -40369,7 +41086,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="915" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="915" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B915" t="s">
         <v>937</v>
       </c>
@@ -40408,7 +41125,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="916" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="916" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B916" t="s">
         <v>938</v>
       </c>
@@ -40447,7 +41164,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="917" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="917" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B917" t="s">
         <v>939</v>
       </c>
@@ -40486,7 +41203,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="918" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="918" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B918" t="s">
         <v>940</v>
       </c>
@@ -40525,7 +41242,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="919" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="919" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B919" t="s">
         <v>941</v>
       </c>
@@ -40564,7 +41281,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="920" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="920" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B920" t="s">
         <v>942</v>
       </c>
@@ -40603,7 +41320,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="921" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="921" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B921" t="s">
         <v>943</v>
       </c>
@@ -40642,7 +41359,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="922" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="922" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B922" t="s">
         <v>944</v>
       </c>
@@ -40681,7 +41398,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="923" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="923" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B923" t="s">
         <v>945</v>
       </c>
@@ -40720,7 +41437,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="924" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="924" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B924" t="s">
         <v>946</v>
       </c>
@@ -40759,7 +41476,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="925" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="925" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B925" t="s">
         <v>947</v>
       </c>
@@ -40798,7 +41515,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="926" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="926" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B926" t="s">
         <v>948</v>
       </c>
@@ -40837,7 +41554,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="927" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="927" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B927" t="s">
         <v>949</v>
       </c>
@@ -40876,7 +41593,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="928" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="928" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B928" t="s">
         <v>950</v>
       </c>
@@ -40915,7 +41632,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="929" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="929" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B929" t="s">
         <v>951</v>
       </c>
@@ -40954,7 +41671,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="930" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="930" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B930" t="s">
         <v>952</v>
       </c>
@@ -40993,7 +41710,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="931" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="931" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B931" t="s">
         <v>953</v>
       </c>
@@ -41032,7 +41749,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="932" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="932" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B932" t="s">
         <v>954</v>
       </c>
@@ -41071,7 +41788,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="933" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="933" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B933" t="s">
         <v>955</v>
       </c>
@@ -41110,7 +41827,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="934" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="934" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B934" t="s">
         <v>956</v>
       </c>
@@ -41149,7 +41866,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="935" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="935" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B935" t="s">
         <v>957</v>
       </c>
@@ -41188,7 +41905,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="936" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="936" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B936" t="s">
         <v>958</v>
       </c>
@@ -41227,7 +41944,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="937" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="937" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B937" t="s">
         <v>959</v>
       </c>
@@ -41266,7 +41983,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="938" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="938" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B938" t="s">
         <v>960</v>
       </c>
@@ -41305,7 +42022,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="939" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="939" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B939" t="s">
         <v>961</v>
       </c>
@@ -41344,7 +42061,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="940" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="940" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B940" t="s">
         <v>962</v>
       </c>
@@ -41383,7 +42100,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="941" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="941" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B941" t="s">
         <v>963</v>
       </c>
@@ -41422,7 +42139,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="942" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="942" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B942" t="s">
         <v>964</v>
       </c>
@@ -41461,7 +42178,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="943" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="943" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B943" t="s">
         <v>965</v>
       </c>
@@ -41500,7 +42217,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="944" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="944" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B944" t="s">
         <v>966</v>
       </c>
@@ -41539,7 +42256,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="945" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="945" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B945" t="s">
         <v>967</v>
       </c>
@@ -41578,7 +42295,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="946" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="946" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B946" t="s">
         <v>968</v>
       </c>
@@ -41617,7 +42334,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="947" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="947" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B947" t="s">
         <v>969</v>
       </c>
@@ -41656,7 +42373,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="948" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="948" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B948" t="s">
         <v>970</v>
       </c>
@@ -41695,7 +42412,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="949" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="949" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B949" t="s">
         <v>971</v>
       </c>
@@ -41734,7 +42451,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="950" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="950" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B950" t="s">
         <v>972</v>
       </c>
@@ -41773,7 +42490,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="951" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="951" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B951" t="s">
         <v>973</v>
       </c>
@@ -41812,7 +42529,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="952" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="952" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B952" t="s">
         <v>974</v>
       </c>
@@ -41851,7 +42568,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="953" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="953" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B953" t="s">
         <v>975</v>
       </c>
@@ -41890,7 +42607,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="954" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="954" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B954" t="s">
         <v>976</v>
       </c>
@@ -41929,7 +42646,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="955" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="955" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B955" t="s">
         <v>977</v>
       </c>
@@ -41968,7 +42685,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="956" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="956" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B956" t="s">
         <v>978</v>
       </c>
@@ -42007,7 +42724,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="957" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="957" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B957" t="s">
         <v>979</v>
       </c>
@@ -42046,7 +42763,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="958" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="958" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B958" t="s">
         <v>980</v>
       </c>
@@ -42085,7 +42802,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="959" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="959" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B959" t="s">
         <v>981</v>
       </c>
@@ -42124,7 +42841,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="960" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="960" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B960" t="s">
         <v>982</v>
       </c>
@@ -42163,7 +42880,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="961" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="961" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B961" t="s">
         <v>983</v>
       </c>
@@ -42202,7 +42919,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="962" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="962" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B962" t="s">
         <v>984</v>
       </c>
@@ -42241,7 +42958,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="963" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="963" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B963" t="s">
         <v>985</v>
       </c>
@@ -42280,7 +42997,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="964" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="964" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B964" t="s">
         <v>986</v>
       </c>
@@ -42319,7 +43036,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="965" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="965" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B965" t="s">
         <v>987</v>
       </c>
@@ -42358,7 +43075,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="966" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="966" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B966" t="s">
         <v>988</v>
       </c>
@@ -42397,7 +43114,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="967" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="967" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B967" t="s">
         <v>989</v>
       </c>
@@ -42436,7 +43153,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="968" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="968" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B968" t="s">
         <v>990</v>
       </c>
@@ -42475,7 +43192,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="969" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="969" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B969" t="s">
         <v>991</v>
       </c>
@@ -42514,7 +43231,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="970" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="970" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B970" t="s">
         <v>992</v>
       </c>
@@ -42553,7 +43270,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="971" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="971" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B971" t="s">
         <v>993</v>
       </c>
@@ -42592,7 +43309,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="972" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="972" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B972" t="s">
         <v>1004</v>
       </c>
@@ -42631,7 +43348,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="973" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="973" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B973" t="s">
         <v>1005</v>
       </c>
@@ -42670,7 +43387,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="974" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="974" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B974" t="s">
         <v>1006</v>
       </c>
@@ -42709,7 +43426,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="975" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="975" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B975" t="s">
         <v>1007</v>
       </c>
@@ -42748,7 +43465,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="976" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="976" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B976" t="s">
         <v>1008</v>
       </c>
@@ -42787,7 +43504,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="977" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="977" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B977" t="s">
         <v>1009</v>
       </c>
@@ -42826,7 +43543,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="978" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="978" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B978" t="s">
         <v>1010</v>
       </c>
@@ -42865,7 +43582,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="979" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="979" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B979" t="s">
         <v>1011</v>
       </c>
@@ -42904,7 +43621,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="980" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="980" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B980" t="s">
         <v>1012</v>
       </c>
@@ -42943,7 +43660,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="981" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="981" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B981" t="s">
         <v>1013</v>
       </c>
@@ -42982,7 +43699,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="982" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="982" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B982" t="s">
         <v>1014</v>
       </c>
@@ -43021,7 +43738,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="983" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="983" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B983" t="s">
         <v>1015</v>
       </c>
@@ -43060,7 +43777,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="984" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="984" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B984" t="s">
         <v>1016</v>
       </c>
@@ -43099,7 +43816,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="985" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="985" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B985" t="s">
         <v>1017</v>
       </c>
@@ -43138,7 +43855,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="986" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="986" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B986" t="s">
         <v>1018</v>
       </c>
@@ -43177,7 +43894,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="987" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="987" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B987" t="s">
         <v>1019</v>
       </c>
@@ -43216,7 +43933,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="988" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="988" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B988" t="s">
         <v>1020</v>
       </c>
@@ -43255,7 +43972,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="989" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="989" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B989" t="s">
         <v>1021</v>
       </c>
@@ -43294,7 +44011,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="990" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="990" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B990" t="s">
         <v>1022</v>
       </c>
@@ -43333,7 +44050,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="991" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="991" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B991" t="s">
         <v>1023</v>
       </c>
@@ -43372,7 +44089,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="992" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="992" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B992" t="s">
         <v>1024</v>
       </c>
@@ -43411,7 +44128,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="993" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="993" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B993" t="s">
         <v>1025</v>
       </c>
@@ -43450,7 +44167,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="994" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="994" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B994" t="s">
         <v>1026</v>
       </c>
@@ -43489,7 +44206,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="995" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="995" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B995" t="s">
         <v>1027</v>
       </c>
@@ -43528,7 +44245,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="996" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="996" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B996" t="s">
         <v>1028</v>
       </c>
@@ -43567,7 +44284,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="997" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="997" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B997" t="s">
         <v>1029</v>
       </c>
@@ -43606,7 +44323,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="998" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="998" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B998" t="s">
         <v>1030</v>
       </c>
@@ -43645,7 +44362,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="999" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="999" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B999" t="s">
         <v>1031</v>
       </c>
@@ -43684,7 +44401,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1000" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="1000" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B1000" t="s">
         <v>1032</v>
       </c>
@@ -43723,7 +44440,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1001" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="1001" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B1001" t="s">
         <v>1033</v>
       </c>
@@ -43762,7 +44479,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1002" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="1002" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B1002" t="s">
         <v>1034</v>
       </c>
@@ -43801,7 +44518,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1003" spans="2:12" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="1003" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B1003" t="s">
         <v>1035</v>
       </c>
@@ -43854,8 +44571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136806EF-2F39-4250-A3E2-BC2E2F8F594B}">
   <dimension ref="A1:AK180"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -50885,6 +51602,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -50893,7 +51611,7 @@
   <dimension ref="E2:F7"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>

--- a/Call_Center_Dashboard/sample-data-excel-portfolio-project_Dashboard.xlsx
+++ b/Call_Center_Dashboard/sample-data-excel-portfolio-project_Dashboard.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
-  <workbookPr/>
+  <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\cours_d_info\Data science\Excel data Analysis\Call_Center_Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AFCD0B6-E544-4E4C-AFF9-127C60BDFC72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD65D92-F1E5-454D-A940-170B20C97420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="43080" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{26D4546B-D2A1-4444-8EAF-A6228F96F0C1}"/>
   </bookViews>
@@ -26,20 +26,20 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="415" r:id="rId5"/>
-    <pivotCache cacheId="417" r:id="rId6"/>
-    <pivotCache cacheId="421" r:id="rId7"/>
-    <pivotCache cacheId="491" r:id="rId8"/>
-    <pivotCache cacheId="494" r:id="rId9"/>
-    <pivotCache cacheId="497" r:id="rId10"/>
-    <pivotCache cacheId="500" r:id="rId11"/>
-    <pivotCache cacheId="503" r:id="rId12"/>
-    <pivotCache cacheId="506" r:id="rId13"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="1" r:id="rId6"/>
+    <pivotCache cacheId="2" r:id="rId7"/>
+    <pivotCache cacheId="3" r:id="rId8"/>
+    <pivotCache cacheId="162" r:id="rId9"/>
+    <pivotCache cacheId="165" r:id="rId10"/>
+    <pivotCache cacheId="168" r:id="rId11"/>
+    <pivotCache cacheId="171" r:id="rId12"/>
+    <pivotCache cacheId="174" r:id="rId13"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{876F7934-8845-4945-9796-88D515C7AA90}">
       <x14:pivotCaches>
-        <pivotCache cacheId="183" r:id="rId14"/>
+        <pivotCache cacheId="9" r:id="rId14"/>
       </x14:pivotCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -197,7 +197,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3160" uniqueCount="1075">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3172" uniqueCount="1083">
   <si>
     <t>Customer ID</t>
   </si>
@@ -3422,6 +3422,30 @@
   </si>
   <si>
     <t>TOTAL</t>
+  </si>
+  <si>
+    <t>% d'appels</t>
+  </si>
+  <si>
+    <t>Appel</t>
+  </si>
+  <si>
+    <t>Vente</t>
+  </si>
+  <si>
+    <t>Rang Appel</t>
+  </si>
+  <si>
+    <t>Rang Vente</t>
+  </si>
+  <si>
+    <t>Libellé</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>CALL CENTER DASHBOARD</t>
   </si>
 </sst>
 </file>
@@ -3432,9 +3456,9 @@
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ \$;\(#,##0.00\ \$\);#,##0.00\ \$"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
-    <numFmt numFmtId="169" formatCode="#,##0\ &quot;$&quot;"/>
+    <numFmt numFmtId="167" formatCode="#,##0\ &quot;$&quot;"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3484,6 +3508,27 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="Amasis MT Pro"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -3668,10 +3713,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -3710,25 +3756,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="169" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="5" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="5" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="169" fontId="5" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="5" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -3736,9 +3780,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="16">
     <dxf>
@@ -3757,9 +3810,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -3898,6 +3948,9 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -3956,37 +4009,7 @@
     <c:fmtId val="8"/>
   </c:pivotSource>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:pivotFmts>
       <c:pivotFmt>
         <c:idx val="0"/>
@@ -4478,40 +4501,40 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>13</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>14</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>30</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>14</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4629,40 +4652,40 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>13</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>14</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>30</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>14</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5210,25 +5233,25 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>30</c:v>
+                  <c:v>146</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26</c:v>
+                  <c:v>138</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>38</c:v>
+                  <c:v>153</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25</c:v>
+                  <c:v>161</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>27</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5624,13 +5647,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>#N/A</c:v>
+                  <c:v>189</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>207</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>#N/A</c:v>
@@ -5998,13 +6021,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>#N/A</c:v>
+                  <c:v>18415</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20872</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>#N/A</c:v>
@@ -6232,7 +6255,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="fr-CA"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7303,19 +7326,19 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>46</c:v>
+                  <c:v>197</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>88</c:v>
+                  <c:v>428</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60</c:v>
+                  <c:v>307</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7334,8 +7357,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
+        <c:gapWidth val="50"/>
         <c:axId val="1465512511"/>
         <c:axId val="1465513951"/>
       </c:barChart>
@@ -10727,13 +10749,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>504824</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -10749,7 +10771,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="323850" y="361951"/>
+          <a:off x="323850" y="771526"/>
           <a:ext cx="1228724" cy="1085849"/>
           <a:chOff x="323850" y="881064"/>
           <a:chExt cx="1223962" cy="1057274"/>
@@ -10942,7 +10964,7 @@
                 <a:cs typeface="Times New Roman"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t>207</a:t>
+              <a:t>1 000</a:t>
             </a:fld>
             <a:endParaRPr lang="fr-CA" sz="1100" b="1">
               <a:solidFill>
@@ -10994,13 +11016,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>504824</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -11016,7 +11038,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="323850" y="1628775"/>
+          <a:off x="323850" y="2038350"/>
           <a:ext cx="1228724" cy="1085849"/>
           <a:chOff x="323850" y="881064"/>
           <a:chExt cx="1223962" cy="1057274"/>
@@ -11092,6 +11114,7 @@
                 <a:latin typeface="Times New Roman"/>
                 <a:cs typeface="Times New Roman"/>
               </a:rPr>
+              <a:pPr algn="ctr"/>
               <a:t>96 623,00 $</a:t>
             </a:fld>
             <a:endParaRPr lang="fr-CA" sz="2400" b="1">
@@ -11207,7 +11230,8 @@
                 <a:latin typeface="Times New Roman"/>
                 <a:cs typeface="Times New Roman"/>
               </a:rPr>
-              <a:t>20 872,00 $</a:t>
+              <a:pPr algn="ctr"/>
+              <a:t>96 623,00 $</a:t>
             </a:fld>
             <a:endParaRPr lang="fr-CA" sz="1000" b="1">
               <a:solidFill>
@@ -11276,13 +11300,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>504824</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -11298,7 +11322,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="323850" y="5391150"/>
+          <a:off x="323850" y="5800725"/>
           <a:ext cx="1228724" cy="1085849"/>
           <a:chOff x="323850" y="881064"/>
           <a:chExt cx="1223962" cy="1057274"/>
@@ -11374,6 +11398,7 @@
                 <a:latin typeface="Times New Roman"/>
                 <a:cs typeface="Times New Roman"/>
               </a:rPr>
+              <a:pPr algn="ctr"/>
               <a:t>307</a:t>
             </a:fld>
             <a:endParaRPr lang="fr-CA" sz="5400" b="1">
@@ -11489,7 +11514,8 @@
                 <a:latin typeface="Times New Roman"/>
                 <a:cs typeface="Times New Roman"/>
               </a:rPr>
-              <a:t>60</a:t>
+              <a:pPr algn="ctr"/>
+              <a:t>307</a:t>
             </a:fld>
             <a:endParaRPr lang="fr-CA" sz="1100" b="1">
               <a:solidFill>
@@ -11540,13 +11566,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -11562,7 +11588,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="323850" y="2895600"/>
+          <a:off x="323850" y="3305175"/>
           <a:ext cx="1276350" cy="1085849"/>
           <a:chOff x="323850" y="881064"/>
           <a:chExt cx="1271403" cy="1057274"/>
@@ -11638,6 +11664,7 @@
                 <a:latin typeface="Times New Roman"/>
                 <a:cs typeface="Times New Roman"/>
               </a:rPr>
+              <a:pPr algn="ctr"/>
               <a:t>89 850</a:t>
             </a:fld>
             <a:endParaRPr lang="fr-CA" sz="4000" b="1">
@@ -11753,7 +11780,8 @@
                 <a:latin typeface="Times New Roman"/>
                 <a:cs typeface="Times New Roman"/>
               </a:rPr>
-              <a:t>17 700</a:t>
+              <a:pPr algn="ctr"/>
+              <a:t>89 850</a:t>
             </a:fld>
             <a:endParaRPr lang="fr-CA" sz="1100" b="1">
               <a:solidFill>
@@ -11804,13 +11832,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>542924</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -11826,7 +11854,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="323850" y="4162425"/>
+          <a:off x="323850" y="4572000"/>
           <a:ext cx="1266824" cy="1085849"/>
           <a:chOff x="323850" y="881064"/>
           <a:chExt cx="1261914" cy="1057274"/>
@@ -11902,6 +11930,7 @@
                 <a:latin typeface="Times New Roman"/>
                 <a:cs typeface="Times New Roman"/>
               </a:rPr>
+              <a:pPr algn="ctr"/>
               <a:t>3,9</a:t>
             </a:fld>
             <a:endParaRPr lang="fr-CA" sz="4400" b="1">
@@ -12017,6 +12046,7 @@
                 <a:latin typeface="Times New Roman"/>
                 <a:cs typeface="Times New Roman"/>
               </a:rPr>
+              <a:pPr algn="ctr"/>
               <a:t>3,9</a:t>
             </a:fld>
             <a:endParaRPr lang="fr-CA" sz="1100" b="1">
@@ -12068,17 +12098,17 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="27" name="Representative">
@@ -12101,7 +12131,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -12146,13 +12176,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -12184,13 +12214,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -12222,7 +12252,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
@@ -12260,14 +12290,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12298,13 +12328,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -12336,13 +12366,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>714376</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>257176</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -13104,7 +13134,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Utilisateur" refreshedDate="45861.713806944441" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{D0B7E7E6-D218-4C6F-A313-24B2F26D0D17}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Utilisateur" refreshedDate="45861.999252199072" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{D0B7E7E6-D218-4C6F-A313-24B2F26D0D17}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="6">
     <cacheField name="[Measures].[Nombre d'appels]" caption="Nombre d'appels" numFmtId="0" hierarchy="17" level="32767"/>
@@ -13199,7 +13229,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Utilisateur" refreshedDate="45861.713807523149" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{533CEFA8-1C08-41B3-887F-0F1BF367EA5B}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Utilisateur" refreshedDate="45861.999253009257" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{533CEFA8-1C08-41B3-887F-0F1BF367EA5B}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="4">
     <cacheField name="[calls].[Date of Call (mois)].[Date of Call (mois)]" caption="Date of Call (mois)" numFmtId="0" hierarchy="11" level="1">
@@ -13309,7 +13339,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Utilisateur" refreshedDate="45861.713808101849" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{841EEFEF-A370-422F-95D7-ECC86DE20907}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Utilisateur" refreshedDate="45861.999253472219" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{841EEFEF-A370-422F-95D7-ECC86DE20907}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
     <cacheField name="[calls].[Day of week].[Day of week]" caption="Day of week" numFmtId="0" hierarchy="8" level="1">
@@ -13400,12 +13430,16 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Utilisateur" refreshedDate="45861.713808680557" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{6B5EEDBE-8C25-486D-B7CC-9C6EB8D2561B}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Utilisateur" refreshedDate="45861.999253819442" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{6B5EEDBE-8C25-486D-B7CC-9C6EB8D2561B}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="1">
     <cacheField name="[calls].[Representative].[Representative]" caption="Representative" numFmtId="0" hierarchy="3" level="1">
-      <sharedItems count="1">
+      <sharedItems count="5">
+        <s v="R01"/>
+        <s v="R02"/>
         <s v="R03"/>
+        <s v="R04"/>
+        <s v="R05"/>
       </sharedItems>
     </cacheField>
   </cacheFields>
@@ -13472,7 +13506,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Utilisateur" refreshedDate="45861.713809259258" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{7DC7ECB6-FE07-4EB9-9187-0476E260CD22}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Utilisateur" refreshedDate="45861.999254166665" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{7DC7ECB6-FE07-4EB9-9187-0476E260CD22}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
     <cacheField name="[Measures].[Nombre d'appels]" caption="Nombre d'appels" numFmtId="0" hierarchy="17" level="32767"/>
@@ -13574,7 +13608,306 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2C17B7A1-40D8-443A-AB45-BD62592EEDB1}" name="Vente par rep" cacheId="491" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15" rowHeaderCaption=" ">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E9E21F4E-B8F2-42B9-9F20-54940A815D0D}" name="selected reps" cacheId="171" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A40:A45" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="1">
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <pivotHierarchies count="26">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="3"/>
+  </rowHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings>
+        <x15:activeTabTopLevelEntity name="[calls]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5B13C963-DA01-4B32-855F-4A9F8F67FCAE}" name="Tableau croisé dynamique5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A30:C36" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField fld="1" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField fld="2" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotHierarchies count="26">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="3"/>
+  </rowHierarchiesUsage>
+  <colHierarchiesUsage count="1">
+    <colHierarchyUsage hierarchyUsage="-2"/>
+  </colHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings>
+        <x15:activeTabTopLevelEntity name="[calls]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7DCF143E-406F-4D92-83FF-D6EEC87F741E}" name="week day trend" cacheId="168" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="28">
+  <location ref="G3:H11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField fld="1" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="26" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotHierarchies count="26">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="8"/>
+  </rowHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_sample-data-excel-portfolio-project_Dashboard.xlsx!calls">
+        <x15:activeTabTopLevelEntity name="[calls]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2C17B7A1-40D8-443A-AB45-BD62592EEDB1}" name="Vente par rep" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15" rowHeaderCaption=" ">
   <location ref="A57:G76" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisCol" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -13753,8 +14086,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3C69183E-52D4-4C6A-B16D-96FE477D0D77}" name="Rating" cacheId="506" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3C69183E-52D4-4C6A-B16D-96FE477D0D77}" name="Rating" cacheId="174" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
   <location ref="G48:H55" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
@@ -13817,11 +14150,7 @@
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1">
-      <members count="1" level="1">
-        <member name="[calls].[Representative].&amp;[R03]"/>
-      </members>
-    </pivotHierarchy>
+    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
@@ -13866,8 +14195,181 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8BE62825-05A2-45FC-9957-E08C5A72A2C4}" name="Tableau croisé dynamique7" cacheId="415" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D5ABB677-C65B-4F24-B4CD-B6970B5B14AF}" name="monthly trend" cacheId="165" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+  <location ref="A12:C25" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0">
+      <items count="12">
+        <item x="0" e="0"/>
+        <item x="1" e="0"/>
+        <item x="2" e="0"/>
+        <item x="3" e="0"/>
+        <item x="4" e="0"/>
+        <item x="5" e="0"/>
+        <item x="6" e="0"/>
+        <item x="7" e="0"/>
+        <item x="8" e="0"/>
+        <item x="9" e="0"/>
+        <item x="10" e="0"/>
+        <item x="11" e="0"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
+    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" dragToData="0" dragOff="0" showAll="0" topAutoShow="0" includeNewItemsInFilter="1" itemPageCount="0" rankBy="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField ignore="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="13">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField fld="1" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Nombre d'appels2" fld="3" subtotal="count" baseField="0" baseItem="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{E15A36E0-9728-4e99-A89B-3F7291B0FE68}">
+          <x14:dataField sourceField="1" uniqueName="[__Xl2].[Measures].[Nombre d'appels]"/>
+        </ext>
+      </extLst>
+    </dataField>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="8" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotHierarchies count="27">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1" dragOff="0" includeNewItemsInFilter="1">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{F1805F06-0CD3-4483-9156-8803C3D141DF}">
+          <x14:pivotHierarchy ignore="1"/>
+        </ext>
+      </extLst>
+    </pivotHierarchy>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="11"/>
+  </rowHierarchiesUsage>
+  <colHierarchiesUsage count="1">
+    <colHierarchyUsage hierarchyUsage="-2"/>
+  </colHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_sample-data-excel-portfolio-project_Dashboard.xlsx!calls">
+        <x15:activeTabTopLevelEntity name="[calls]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8BE62825-05A2-45FC-9957-E08C5A72A2C4}" name="Tableau croisé dynamique7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
   <location ref="A48:D53" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -13997,472 +14499,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E9E21F4E-B8F2-42B9-9F20-54940A815D0D}" name="selected reps" cacheId="503" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A40:A41" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="1">
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="1">
-        <item s="1" x="0"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="1">
-    <i>
-      <x/>
-    </i>
-  </rowItems>
-  <pivotHierarchies count="26">
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-  </pivotHierarchies>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="3"/>
-  </rowHierarchiesUsage>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
-      <x15:pivotTableUISettings>
-        <x15:activeTabTopLevelEntity name="[calls]"/>
-      </x15:pivotTableUISettings>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5B13C963-DA01-4B32-855F-4A9F8F67FCAE}" name="Tableau croisé dynamique5" cacheId="417" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A30:C36" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="3">
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField fld="1" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField fld="2" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotHierarchies count="26">
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-  </pivotHierarchies>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="3"/>
-  </rowHierarchiesUsage>
-  <colHierarchiesUsage count="1">
-    <colHierarchyUsage hierarchyUsage="-2"/>
-  </colHierarchiesUsage>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
-      <x15:pivotTableUISettings>
-        <x15:activeTabTopLevelEntity name="[calls]"/>
-      </x15:pivotTableUISettings>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7DCF143E-406F-4D92-83FF-D6EEC87F741E}" name="week day trend" cacheId="500" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="28">
-  <location ref="G3:H11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="3">
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="7">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField fld="1" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="26" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotHierarchies count="26">
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1">
-      <members count="1" level="1">
-        <member name="[calls].[Representative].&amp;[R03]"/>
-      </members>
-    </pivotHierarchy>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-  </pivotHierarchies>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="8"/>
-  </rowHierarchiesUsage>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
-      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_sample-data-excel-portfolio-project_Dashboard.xlsx!calls">
-        <x15:activeTabTopLevelEntity name="[calls]"/>
-      </x15:pivotTableUISettings>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D5ABB677-C65B-4F24-B4CD-B6970B5B14AF}" name="monthly trend" cacheId="497" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
-  <location ref="A12:C25" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="4">
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0">
-      <items count="12">
-        <item x="0" e="0"/>
-        <item x="1" e="0"/>
-        <item x="2" e="0"/>
-        <item x="3" e="0"/>
-        <item x="4" e="0"/>
-        <item x="5" e="0"/>
-        <item x="6" e="0"/>
-        <item x="7" e="0"/>
-        <item x="8" e="0"/>
-        <item x="9" e="0"/>
-        <item x="10" e="0"/>
-        <item x="11" e="0"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
-    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" dragToData="0" dragOff="0" showAll="0" topAutoShow="0" includeNewItemsInFilter="1" itemPageCount="0" rankBy="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField ignore="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="13">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField fld="1" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="Nombre d'appels2" fld="3" subtotal="count" baseField="0" baseItem="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{E15A36E0-9728-4e99-A89B-3F7291B0FE68}">
-          <x14:dataField sourceField="1" uniqueName="[__Xl2].[Measures].[Nombre d'appels]"/>
-        </ext>
-      </extLst>
-    </dataField>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="8" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="8" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotHierarchies count="27">
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1">
-      <members count="1" level="1">
-        <member name="[calls].[Representative].&amp;[R03]"/>
-      </members>
-    </pivotHierarchy>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1" dragOff="0" includeNewItemsInFilter="1">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{F1805F06-0CD3-4483-9156-8803C3D141DF}">
-          <x14:pivotHierarchy ignore="1"/>
-        </ext>
-      </extLst>
-    </pivotHierarchy>
-  </pivotHierarchies>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="11"/>
-  </rowHierarchiesUsage>
-  <colHierarchiesUsage count="1">
-    <colHierarchyUsage hierarchyUsage="-2"/>
-  </colHierarchiesUsage>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
-      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_sample-data-excel-portfolio-project_Dashboard.xlsx!calls">
-        <x15:activeTabTopLevelEntity name="[calls]"/>
-      </x15:pivotTableUISettings>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3CBC4AF0-342F-4D2F-BFAA-10C5ADEC97FE}" name="rep pivot" cacheId="494" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3CBC4AF0-342F-4D2F-BFAA-10C5ADEC97FE}" name="rep pivot" cacheId="162" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A7:E8" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="6">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
@@ -14506,11 +14544,7 @@
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1">
-      <members count="1" level="1">
-        <member name="[calls].[Representative].&amp;[R03]"/>
-      </members>
-    </pivotHierarchy>
+    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
@@ -14555,7 +14589,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E28B032F-BFE3-440B-ACDC-753AF11D0B67}" name="Tableau croisé dynamique1" cacheId="421" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E28B032F-BFE3-440B-ACDC-753AF11D0B67}" name="Tableau croisé dynamique1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E4" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="5">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
@@ -14760,7 +14794,7 @@
         </level>
       </levels>
       <selections count="1">
-        <selection n="[calls].[Representative].&amp;[R03]"/>
+        <selection n="[calls].[Representative].[All]"/>
       </selections>
     </olap>
   </data>
@@ -14787,13 +14821,13 @@
     <tableColumn id="8" xr3:uid="{6E4123C0-0B17-43B8-A142-A1E540CE974C}" name="FY" dataDxfId="12">
       <calculatedColumnFormula>IF(MONTH(calls[[#This Row],[Date of Call]])&lt;=6, YEAR(calls[[#This Row],[Date of Call]]), YEAR(calls[[#This Row],[Date of Call]])+1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{199FA271-5E9B-46CE-9BC6-2801F92CD17E}" name="Day of week" dataDxfId="1">
+    <tableColumn id="9" xr3:uid="{199FA271-5E9B-46CE-9BC6-2801F92CD17E}" name="Day of week" dataDxfId="11">
       <calculatedColumnFormula>TEXT(calls[[#This Row],[Date of Call]],"JJJJ")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{328CDB09-95B8-4D5E-9ED9-EF0D363735A1}" name="Duration Bucket" dataDxfId="11">
+    <tableColumn id="10" xr3:uid="{328CDB09-95B8-4D5E-9ED9-EF0D363735A1}" name="Duration Bucket" dataDxfId="10">
       <calculatedColumnFormula array="1">_xlfn.IFS(calls[[#This Row],[Duration]]&lt;=10,"Under 10 mins", calls[[#This Row],[Duration]]&lt;=30, "10 to 30 mins", calls[[#This Row],[Duration]]&lt;=60, "30 to 60 mins", calls[[#This Row],[Duration]]&lt;=120, "1 to 2 hours", TRUE, "More than 2 hours")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{31C7E7FB-94CB-4DAB-B0CB-46B648CD4D41}" name="Rating rounded" dataDxfId="10">
+    <tableColumn id="11" xr3:uid="{31C7E7FB-94CB-4DAB-B0CB-46B648CD4D41}" name="Rating rounded" dataDxfId="9">
       <calculatedColumnFormula>ROUND(calls[[#This Row],[Satisfaction Rating]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -14802,13 +14836,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{27158F51-A707-4171-8A04-81FB0AABCBA5}" name="customers" displayName="customers" ref="Q3:T18" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{27158F51-A707-4171-8A04-81FB0AABCBA5}" name="customers" displayName="customers" ref="Q3:T18" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
   <autoFilter ref="Q3:T18" xr:uid="{27158F51-A707-4171-8A04-81FB0AABCBA5}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{02688061-6A8C-4E23-B7FF-D00CD8B58CAC}" name="Customer ID" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{771678B6-DB44-426B-9874-B4E421A440D5}" name="Gedner" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{B0D41C62-587E-494D-B49A-603F2C05F8D3}" name="Age" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{663F92D6-FE31-4D81-9E01-8D066DDC8A88}" name="City" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{02688061-6A8C-4E23-B7FF-D00CD8B58CAC}" name="Customer ID" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{771678B6-DB44-426B-9874-B4E421A440D5}" name="Gedner" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{B0D41C62-587E-494D-B49A-603F2C05F8D3}" name="Age" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{663F92D6-FE31-4D81-9E01-8D066DDC8A88}" name="City" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15077,22 +15111,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D46B6B0A-2023-4684-B5DE-DA4F38374D85}">
-  <dimension ref="A3:J76"/>
+  <dimension ref="A3:M76"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="73" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59:G76"/>
+    <sheetView topLeftCell="B23" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M50" sqref="M50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="24.78515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.0703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.92578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.92578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.92578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.2109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.2109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.78515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.0703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.35546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.78515625" bestFit="1" customWidth="1"/>
     <col min="11" max="330" width="25.0703125" bestFit="1" customWidth="1"/>
@@ -15142,7 +15176,7 @@
         <v>1064</v>
       </c>
       <c r="H4" s="21">
-        <v>30</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
@@ -15150,7 +15184,7 @@
         <v>1065</v>
       </c>
       <c r="H5" s="21">
-        <v>27</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
@@ -15158,53 +15192,53 @@
         <v>1066</v>
       </c>
       <c r="H6" s="21">
-        <v>34</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A7" s="26" t="s">
+      <c r="A7" t="s">
         <v>1042</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" t="s">
         <v>1043</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" t="s">
         <v>1044</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" t="s">
         <v>1045</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" t="s">
         <v>1046</v>
       </c>
       <c r="G7" s="25" t="s">
         <v>1067</v>
       </c>
       <c r="H7" s="21">
-        <v>26</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="21">
-        <v>207</v>
+        <v>1000</v>
       </c>
       <c r="B8" s="22">
-        <v>20872</v>
+        <v>96623</v>
       </c>
       <c r="C8" s="21">
-        <v>17700</v>
+        <v>89850</v>
       </c>
       <c r="D8" s="23">
-        <v>3.8589371980676304</v>
+        <v>3.8854000000000033</v>
       </c>
       <c r="E8" s="21">
-        <v>60</v>
+        <v>307</v>
       </c>
       <c r="G8" s="25" t="s">
         <v>1068</v>
       </c>
       <c r="H8" s="21">
-        <v>38</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
@@ -15212,7 +15246,7 @@
         <v>1069</v>
       </c>
       <c r="H9" s="21">
-        <v>25</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
@@ -15220,7 +15254,7 @@
         <v>1070</v>
       </c>
       <c r="H10" s="21">
-        <v>27</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
@@ -15228,17 +15262,17 @@
         <v>1049</v>
       </c>
       <c r="H11" s="21">
-        <v>207</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="24" t="s">
         <v>1062</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" t="s">
         <v>1042</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" t="s">
         <v>1063</v>
       </c>
     </row>
@@ -15247,10 +15281,10 @@
         <v>1050</v>
       </c>
       <c r="B13" s="21">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="C13" s="21">
-        <v>13</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
@@ -15258,10 +15292,10 @@
         <v>1051</v>
       </c>
       <c r="B14" s="21">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="C14" s="21">
-        <v>13</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
@@ -15269,10 +15303,10 @@
         <v>1052</v>
       </c>
       <c r="B15" s="21">
-        <v>28</v>
+        <v>155</v>
       </c>
       <c r="C15" s="21">
-        <v>28</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
@@ -15280,10 +15314,10 @@
         <v>1053</v>
       </c>
       <c r="B16" s="21">
-        <v>24</v>
+        <v>136</v>
       </c>
       <c r="C16" s="21">
-        <v>24</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.4">
@@ -15291,10 +15325,10 @@
         <v>1054</v>
       </c>
       <c r="B17" s="21">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="C17" s="21">
-        <v>23</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.4">
@@ -15302,10 +15336,10 @@
         <v>1055</v>
       </c>
       <c r="B18" s="21">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="C18" s="21">
-        <v>17</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.4">
@@ -15313,10 +15347,10 @@
         <v>1056</v>
       </c>
       <c r="B19" s="21">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="C19" s="21">
-        <v>11</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.4">
@@ -15324,10 +15358,10 @@
         <v>1057</v>
       </c>
       <c r="B20" s="21">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="C20" s="21">
-        <v>11</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.4">
@@ -15335,10 +15369,10 @@
         <v>1058</v>
       </c>
       <c r="B21" s="21">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="C21" s="21">
-        <v>14</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.4">
@@ -15346,10 +15380,10 @@
         <v>1059</v>
       </c>
       <c r="B22" s="21">
-        <v>30</v>
+        <v>114</v>
       </c>
       <c r="C22" s="21">
-        <v>30</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.4">
@@ -15357,10 +15391,10 @@
         <v>1060</v>
       </c>
       <c r="B23" s="21">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="C23" s="21">
-        <v>14</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.4">
@@ -15368,10 +15402,10 @@
         <v>1061</v>
       </c>
       <c r="B24" s="21">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="C24" s="21">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.4">
@@ -15379,10 +15413,10 @@
         <v>1049</v>
       </c>
       <c r="B25" s="21">
-        <v>207</v>
+        <v>1000</v>
       </c>
       <c r="C25" s="21">
-        <v>207</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.4">
@@ -15391,7 +15425,7 @@
       </c>
       <c r="J29" t="str">
         <f>A41</f>
-        <v>R03</v>
+        <v>R01</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.4">
@@ -15428,16 +15462,16 @@
       <c r="G31">
         <v>189</v>
       </c>
-      <c r="H31" s="28">
+      <c r="H31" s="26">
         <v>18415</v>
       </c>
-      <c r="I31" t="e">
+      <c r="I31">
         <f>IF(F31=$J$29,G31,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J31" s="26" t="e">
+        <v>189</v>
+      </c>
+      <c r="J31">
         <f>IF(F31=$J$29,H31,NA())</f>
-        <v>#N/A</v>
+        <v>18415</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.4">
@@ -15456,19 +15490,19 @@
       <c r="G32">
         <v>218</v>
       </c>
-      <c r="H32" s="28">
+      <c r="H32" s="26">
         <v>20581</v>
       </c>
-      <c r="I32" s="26" t="e">
+      <c r="I32" t="e">
         <f t="shared" ref="I32:I35" si="0">IF(F32=$J$29,G32,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="J32" s="26" t="e">
+      <c r="J32" t="e">
         <f t="shared" ref="J32:J35" si="1">IF(F32=$J$29,H32,NA())</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33" s="25" t="s">
         <v>6</v>
       </c>
@@ -15484,19 +15518,19 @@
       <c r="G33">
         <v>207</v>
       </c>
-      <c r="H33" s="28">
+      <c r="H33" s="26">
         <v>20872</v>
       </c>
-      <c r="I33" s="26">
+      <c r="I33" t="e">
         <f t="shared" si="0"/>
-        <v>207</v>
-      </c>
-      <c r="J33" s="26">
+        <v>#N/A</v>
+      </c>
+      <c r="J33" t="e">
         <f t="shared" si="1"/>
-        <v>20872</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34" s="25" t="s">
         <v>13</v>
       </c>
@@ -15512,19 +15546,19 @@
       <c r="G34">
         <v>186</v>
       </c>
-      <c r="H34" s="28">
+      <c r="H34" s="26">
         <v>16651</v>
       </c>
-      <c r="I34" s="26" t="e">
+      <c r="I34" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="J34" s="26" t="e">
+      <c r="J34" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A35" s="25" t="s">
         <v>10</v>
       </c>
@@ -15540,19 +15574,19 @@
       <c r="G35">
         <v>200</v>
       </c>
-      <c r="H35" s="28">
+      <c r="H35" s="26">
         <v>20104</v>
       </c>
-      <c r="I35" s="26" t="e">
+      <c r="I35" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="J35" s="26" t="e">
+      <c r="J35" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A36" s="25" t="s">
         <v>1049</v>
       </c>
@@ -15563,17 +15597,85 @@
         <v>96623</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="L39" t="s">
+        <v>1075</v>
+      </c>
+      <c r="M39" s="40">
+        <f>A8/A4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A40" s="24" t="s">
         <v>1062</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L40" t="s">
+        <v>1076</v>
+      </c>
+      <c r="M40">
+        <f>VLOOKUP(A41,F31:G35,2,FALSE)</f>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A41" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="L41" t="s">
+        <v>1077</v>
+      </c>
+      <c r="M41">
+        <f>VLOOKUP(A41,_xlfn.ANCHORARRAY(F31),3,FALSE)</f>
+        <v>18415</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A42" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A43" s="25" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L43" t="s">
+        <v>1078</v>
+      </c>
+      <c r="M43">
+        <f>_xlfn.RANK.AVG(M40,G31:G35)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A44" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="L44" t="s">
+        <v>1079</v>
+      </c>
+      <c r="M44">
+        <f>_xlfn.RANK.AVG(M41,H31:H35)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A45" s="25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="L46" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="M47" t="str">
+        <f>"% d'appels :"&amp;TEXT(M39,"0%")</f>
+        <v>% d'appels :100%</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A48" s="24" t="s">
         <v>1042</v>
       </c>
@@ -15586,18 +15688,22 @@
       <c r="H48" t="s">
         <v>1042</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="M48" t="str">
+        <f>IF(COUNTA(A41:A45)&gt;1, " ", "Rang Appel :"&amp;M43)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A49" s="24" t="s">
         <v>1062</v>
       </c>
-      <c r="B49" s="26" t="s">
+      <c r="B49" t="s">
         <v>999</v>
       </c>
-      <c r="C49" s="26" t="s">
+      <c r="C49" t="s">
         <v>998</v>
       </c>
-      <c r="D49" s="26" t="s">
+      <c r="D49" t="s">
         <v>1049</v>
       </c>
       <c r="G49" s="25">
@@ -15606,8 +15712,12 @@
       <c r="H49" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="M49" t="str">
+        <f>IF(COUNTA(A41:A45)&gt;1, " ", "Rang Appel :"&amp;M44)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A50" s="25" t="s">
         <v>1002</v>
       </c>
@@ -15624,10 +15734,10 @@
         <v>1</v>
       </c>
       <c r="H50" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A51" s="25" t="s">
         <v>1001</v>
       </c>
@@ -15644,10 +15754,17 @@
         <v>2</v>
       </c>
       <c r="H51" s="21">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
+        <v>59</v>
+      </c>
+      <c r="L51" t="s">
+        <v>1081</v>
+      </c>
+      <c r="M51" t="str">
+        <f>IF(COUNTA(A43:A47)&gt;1, " ", VLOOKUP(A41,Assets!E3:F7,2,FALSE))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A52" s="25" t="s">
         <v>1000</v>
       </c>
@@ -15664,10 +15781,10 @@
         <v>3</v>
       </c>
       <c r="H52" s="21">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A53" s="25" t="s">
         <v>1049</v>
       </c>
@@ -15684,26 +15801,26 @@
         <v>4</v>
       </c>
       <c r="H53" s="21">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.4">
       <c r="G54" s="25">
         <v>5</v>
       </c>
       <c r="H54" s="21">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.4">
       <c r="G55" s="25" t="s">
         <v>1049</v>
       </c>
       <c r="H55" s="21">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A57" s="24" t="s">
         <v>1043</v>
       </c>
@@ -15711,42 +15828,36 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A58" s="24" t="s">
         <v>1047</v>
       </c>
-      <c r="B58" s="26" t="s">
+      <c r="B58" t="s">
         <v>11</v>
       </c>
-      <c r="C58" s="26" t="s">
+      <c r="C58" t="s">
         <v>9</v>
       </c>
-      <c r="D58" s="26" t="s">
+      <c r="D58" t="s">
         <v>6</v>
       </c>
-      <c r="E58" s="26" t="s">
+      <c r="E58" t="s">
         <v>13</v>
       </c>
-      <c r="F58" s="26" t="s">
+      <c r="F58" t="s">
         <v>10</v>
       </c>
-      <c r="G58" s="26" t="s">
+      <c r="G58" t="s">
         <v>1049</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A59" s="25" t="s">
         <v>1002</v>
       </c>
-      <c r="B59" s="27"/>
-      <c r="C59" s="27"/>
-      <c r="D59" s="27"/>
-      <c r="E59" s="27"/>
-      <c r="F59" s="27"/>
-      <c r="G59" s="27"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A60" s="29" t="s">
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A60" s="27" t="s">
         <v>20</v>
       </c>
       <c r="B60" s="22">
@@ -15768,8 +15879,8 @@
         <v>4804</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A61" s="29" t="s">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A61" s="27" t="s">
         <v>12</v>
       </c>
       <c r="B61" s="22">
@@ -15791,8 +15902,8 @@
         <v>7689</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A62" s="29" t="s">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A62" s="27" t="s">
         <v>8</v>
       </c>
       <c r="B62" s="22">
@@ -15814,8 +15925,8 @@
         <v>6749</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A63" s="29" t="s">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A63" s="27" t="s">
         <v>16</v>
       </c>
       <c r="B63" s="22">
@@ -15837,19 +15948,13 @@
         <v>6819</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A64" s="25" t="s">
         <v>1001</v>
       </c>
-      <c r="B64" s="27"/>
-      <c r="C64" s="27"/>
-      <c r="D64" s="27"/>
-      <c r="E64" s="27"/>
-      <c r="F64" s="27"/>
-      <c r="G64" s="27"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A65" s="29" t="s">
+      <c r="A65" s="27" t="s">
         <v>24</v>
       </c>
       <c r="B65" s="22">
@@ -15872,7 +15977,7 @@
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A66" s="29" t="s">
+      <c r="A66" s="27" t="s">
         <v>15</v>
       </c>
       <c r="B66" s="22">
@@ -15895,7 +16000,7 @@
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A67" s="29" t="s">
+      <c r="A67" s="27" t="s">
         <v>5</v>
       </c>
       <c r="B67" s="22">
@@ -15918,7 +16023,7 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A68" s="29" t="s">
+      <c r="A68" s="27" t="s">
         <v>18</v>
       </c>
       <c r="B68" s="22">
@@ -15941,7 +16046,7 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A69" s="29" t="s">
+      <c r="A69" s="27" t="s">
         <v>14</v>
       </c>
       <c r="B69" s="22">
@@ -15964,7 +16069,7 @@
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A70" s="29" t="s">
+      <c r="A70" s="27" t="s">
         <v>19</v>
       </c>
       <c r="B70" s="22">
@@ -15990,15 +16095,9 @@
       <c r="A71" s="25" t="s">
         <v>1000</v>
       </c>
-      <c r="B71" s="27"/>
-      <c r="C71" s="27"/>
-      <c r="D71" s="27"/>
-      <c r="E71" s="27"/>
-      <c r="F71" s="27"/>
-      <c r="G71" s="27"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A72" s="29" t="s">
+      <c r="A72" s="27" t="s">
         <v>17</v>
       </c>
       <c r="B72" s="22">
@@ -16021,7 +16120,7 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A73" s="29" t="s">
+      <c r="A73" s="27" t="s">
         <v>23</v>
       </c>
       <c r="B73" s="22">
@@ -16044,7 +16143,7 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A74" s="29" t="s">
+      <c r="A74" s="27" t="s">
         <v>7</v>
       </c>
       <c r="B74" s="22">
@@ -16067,7 +16166,7 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A75" s="29" t="s">
+      <c r="A75" s="27" t="s">
         <v>22</v>
       </c>
       <c r="B75" s="22">
@@ -16090,7 +16189,7 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A76" s="29" t="s">
+      <c r="A76" s="27" t="s">
         <v>21</v>
       </c>
       <c r="B76" s="22">
@@ -55389,10 +55488,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136806EF-2F39-4250-A3E2-BC2E2F8F594B}">
-  <dimension ref="A1:AK181"/>
+  <dimension ref="A1:AK182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+      <selection activeCell="Y21" sqref="Y21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -55404,44 +55503,10 @@
     <col min="16" max="16" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A1" s="20"/>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="20"/>
-      <c r="AA1" s="20"/>
-      <c r="AB1" s="20"/>
-      <c r="AC1" s="20"/>
-      <c r="AD1" s="20"/>
-      <c r="AE1" s="20"/>
-      <c r="AF1" s="20"/>
-      <c r="AG1" s="20"/>
-      <c r="AH1" s="20"/>
-      <c r="AI1" s="20"/>
-      <c r="AJ1" s="20"/>
-      <c r="AK1" s="20"/>
+    <row r="1" spans="1:37" s="20" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.85">
+      <c r="A1" s="43" t="s">
+        <v>1082</v>
+      </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A2" s="20"/>
@@ -56045,26 +56110,13 @@
       <c r="N17" s="20"/>
       <c r="O17" s="20"/>
       <c r="P17" s="20"/>
-      <c r="Q17" s="30"/>
-      <c r="R17" s="39" t="str" cm="1">
-        <f t="array" ref="R17:V17">Dynamique!B58:F58</f>
-        <v>R01</v>
-      </c>
-      <c r="S17" s="39" t="str">
-        <v>R02</v>
-      </c>
-      <c r="T17" s="39" t="str">
-        <v>R03</v>
-      </c>
-      <c r="U17" s="39" t="str">
-        <v>R04</v>
-      </c>
-      <c r="V17" s="39" t="str">
-        <v>R05</v>
-      </c>
-      <c r="W17" s="40" t="s">
-        <v>1074</v>
-      </c>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
+      <c r="T17" s="20"/>
+      <c r="U17" s="20"/>
+      <c r="V17" s="20"/>
+      <c r="W17" s="20"/>
       <c r="X17" s="20"/>
       <c r="Y17" s="20"/>
       <c r="Z17" s="20"/>
@@ -56097,27 +56149,25 @@
       <c r="N18" s="20"/>
       <c r="O18" s="20"/>
       <c r="P18" s="20"/>
-      <c r="Q18" s="41" t="str" cm="1">
-        <f t="array" ref="Q18:W35">IF(Dynamique!A59:G76=0," ",Dynamique!A59:G76)</f>
-        <v>Cincinnati</v>
-      </c>
-      <c r="R18" s="31" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="S18" s="31" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T18" s="31" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="U18" s="31" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="V18" s="31" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="W18" s="32" t="str">
-        <v xml:space="preserve"> </v>
+      <c r="Q18" s="28"/>
+      <c r="R18" s="37" t="str" cm="1">
+        <f t="array" ref="R18:V18">Dynamique!B58:F58</f>
+        <v>R01</v>
+      </c>
+      <c r="S18" s="37" t="str">
+        <v>R02</v>
+      </c>
+      <c r="T18" s="37" t="str">
+        <v>R03</v>
+      </c>
+      <c r="U18" s="37" t="str">
+        <v>R04</v>
+      </c>
+      <c r="V18" s="37" t="str">
+        <v>R05</v>
+      </c>
+      <c r="W18" s="38" t="s">
+        <v>1074</v>
       </c>
       <c r="X18" s="20"/>
       <c r="Y18" s="20"/>
@@ -56151,26 +56201,27 @@
       <c r="N19" s="20"/>
       <c r="O19" s="20"/>
       <c r="P19" s="20"/>
-      <c r="Q19" s="33" t="str">
-        <v>C0003</v>
-      </c>
-      <c r="R19" s="34">
-        <v>891</v>
-      </c>
-      <c r="S19" s="34">
-        <v>1332</v>
-      </c>
-      <c r="T19" s="34">
-        <v>1282</v>
-      </c>
-      <c r="U19" s="34">
-        <v>739</v>
-      </c>
-      <c r="V19" s="34">
-        <v>560</v>
-      </c>
-      <c r="W19" s="35">
-        <v>4804</v>
+      <c r="Q19" s="39" t="str" cm="1">
+        <f t="array" ref="Q19:W36">IF(Dynamique!A59:G76=0," ",Dynamique!A59:G76)</f>
+        <v>Cincinnati</v>
+      </c>
+      <c r="R19" s="29" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="S19" s="29" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T19" s="29" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="U19" s="29" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="V19" s="29" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="W19" s="30" t="str">
+        <v xml:space="preserve"> </v>
       </c>
       <c r="X19" s="20"/>
       <c r="Y19" s="20"/>
@@ -56204,26 +56255,26 @@
       <c r="N20" s="20"/>
       <c r="O20" s="20"/>
       <c r="P20" s="20"/>
-      <c r="Q20" s="33" t="str">
-        <v>C0004</v>
-      </c>
-      <c r="R20" s="34">
-        <v>1991</v>
-      </c>
-      <c r="S20" s="34">
-        <v>1886</v>
-      </c>
-      <c r="T20" s="34">
-        <v>1206</v>
-      </c>
-      <c r="U20" s="34">
-        <v>884</v>
-      </c>
-      <c r="V20" s="34">
-        <v>1722</v>
-      </c>
-      <c r="W20" s="35">
-        <v>7689</v>
+      <c r="Q20" s="31" t="str">
+        <v>C0003</v>
+      </c>
+      <c r="R20" s="32">
+        <v>891</v>
+      </c>
+      <c r="S20" s="32">
+        <v>1332</v>
+      </c>
+      <c r="T20" s="32">
+        <v>1282</v>
+      </c>
+      <c r="U20" s="32">
+        <v>739</v>
+      </c>
+      <c r="V20" s="32">
+        <v>560</v>
+      </c>
+      <c r="W20" s="33">
+        <v>4804</v>
       </c>
       <c r="X20" s="20"/>
       <c r="Y20" s="20"/>
@@ -56257,26 +56308,26 @@
       <c r="N21" s="20"/>
       <c r="O21" s="20"/>
       <c r="P21" s="20"/>
-      <c r="Q21" s="33" t="str">
-        <v>C0011</v>
-      </c>
-      <c r="R21" s="34">
-        <v>1163</v>
-      </c>
-      <c r="S21" s="34">
-        <v>1180</v>
-      </c>
-      <c r="T21" s="34">
-        <v>1616</v>
-      </c>
-      <c r="U21" s="34">
-        <v>1043</v>
-      </c>
-      <c r="V21" s="34">
-        <v>1747</v>
-      </c>
-      <c r="W21" s="35">
-        <v>6749</v>
+      <c r="Q21" s="31" t="str">
+        <v>C0004</v>
+      </c>
+      <c r="R21" s="32">
+        <v>1991</v>
+      </c>
+      <c r="S21" s="32">
+        <v>1886</v>
+      </c>
+      <c r="T21" s="32">
+        <v>1206</v>
+      </c>
+      <c r="U21" s="32">
+        <v>884</v>
+      </c>
+      <c r="V21" s="32">
+        <v>1722</v>
+      </c>
+      <c r="W21" s="33">
+        <v>7689</v>
       </c>
       <c r="X21" s="20"/>
       <c r="Y21" s="20"/>
@@ -56310,26 +56361,26 @@
       <c r="N22" s="20"/>
       <c r="O22" s="20"/>
       <c r="P22" s="20"/>
-      <c r="Q22" s="33" t="str">
-        <v>C0012</v>
-      </c>
-      <c r="R22" s="34">
-        <v>1438</v>
-      </c>
-      <c r="S22" s="34">
+      <c r="Q22" s="31" t="str">
+        <v>C0011</v>
+      </c>
+      <c r="R22" s="32">
+        <v>1163</v>
+      </c>
+      <c r="S22" s="32">
+        <v>1180</v>
+      </c>
+      <c r="T22" s="32">
         <v>1616</v>
       </c>
-      <c r="T22" s="34">
-        <v>866</v>
-      </c>
-      <c r="U22" s="34">
-        <v>829</v>
-      </c>
-      <c r="V22" s="34">
-        <v>2070</v>
-      </c>
-      <c r="W22" s="35">
-        <v>6819</v>
+      <c r="U22" s="32">
+        <v>1043</v>
+      </c>
+      <c r="V22" s="32">
+        <v>1747</v>
+      </c>
+      <c r="W22" s="33">
+        <v>6749</v>
       </c>
       <c r="X22" s="20"/>
       <c r="Y22" s="20"/>
@@ -56363,26 +56414,26 @@
       <c r="N23" s="20"/>
       <c r="O23" s="20"/>
       <c r="P23" s="20"/>
-      <c r="Q23" s="41" t="str">
-        <v>Cleveland</v>
-      </c>
-      <c r="R23" s="34" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="S23" s="34" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T23" s="34" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="U23" s="34" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="V23" s="34" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="W23" s="35" t="str">
-        <v xml:space="preserve"> </v>
+      <c r="Q23" s="31" t="str">
+        <v>C0012</v>
+      </c>
+      <c r="R23" s="32">
+        <v>1438</v>
+      </c>
+      <c r="S23" s="32">
+        <v>1616</v>
+      </c>
+      <c r="T23" s="32">
+        <v>866</v>
+      </c>
+      <c r="U23" s="32">
+        <v>829</v>
+      </c>
+      <c r="V23" s="32">
+        <v>2070</v>
+      </c>
+      <c r="W23" s="33">
+        <v>6819</v>
       </c>
       <c r="X23" s="20"/>
       <c r="Y23" s="20"/>
@@ -56416,26 +56467,26 @@
       <c r="N24" s="20"/>
       <c r="O24" s="20"/>
       <c r="P24" s="20"/>
-      <c r="Q24" s="33" t="str">
-        <v>C0002</v>
-      </c>
-      <c r="R24" s="34">
-        <v>1233</v>
-      </c>
-      <c r="S24" s="34">
-        <v>223</v>
-      </c>
-      <c r="T24" s="34">
-        <v>1680</v>
-      </c>
-      <c r="U24" s="34">
-        <v>990</v>
-      </c>
-      <c r="V24" s="34">
-        <v>1508</v>
-      </c>
-      <c r="W24" s="35">
-        <v>5634</v>
+      <c r="Q24" s="39" t="str">
+        <v>Cleveland</v>
+      </c>
+      <c r="R24" s="32" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="S24" s="32" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T24" s="32" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="U24" s="32" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="V24" s="32" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="W24" s="33" t="str">
+        <v xml:space="preserve"> </v>
       </c>
       <c r="X24" s="20"/>
       <c r="Y24" s="20"/>
@@ -56469,26 +56520,26 @@
       <c r="N25" s="20"/>
       <c r="O25" s="20"/>
       <c r="P25" s="20"/>
-      <c r="Q25" s="33" t="str">
-        <v>C0007</v>
-      </c>
-      <c r="R25" s="34">
-        <v>1598</v>
-      </c>
-      <c r="S25" s="34">
-        <v>1907</v>
-      </c>
-      <c r="T25" s="34">
-        <v>869</v>
-      </c>
-      <c r="U25" s="34">
-        <v>1426</v>
-      </c>
-      <c r="V25" s="34">
-        <v>1416</v>
-      </c>
-      <c r="W25" s="35">
-        <v>7216</v>
+      <c r="Q25" s="31" t="str">
+        <v>C0002</v>
+      </c>
+      <c r="R25" s="32">
+        <v>1233</v>
+      </c>
+      <c r="S25" s="32">
+        <v>223</v>
+      </c>
+      <c r="T25" s="32">
+        <v>1680</v>
+      </c>
+      <c r="U25" s="32">
+        <v>990</v>
+      </c>
+      <c r="V25" s="32">
+        <v>1508</v>
+      </c>
+      <c r="W25" s="33">
+        <v>5634</v>
       </c>
       <c r="X25" s="20"/>
       <c r="Y25" s="20"/>
@@ -56522,26 +56573,26 @@
       <c r="N26" s="20"/>
       <c r="O26" s="20"/>
       <c r="P26" s="20"/>
-      <c r="Q26" s="33" t="str">
-        <v>C0008</v>
-      </c>
-      <c r="R26" s="34">
-        <v>900</v>
-      </c>
-      <c r="S26" s="34">
-        <v>1016</v>
-      </c>
-      <c r="T26" s="34">
-        <v>960</v>
-      </c>
-      <c r="U26" s="34">
-        <v>940</v>
-      </c>
-      <c r="V26" s="34">
-        <v>1193</v>
-      </c>
-      <c r="W26" s="35">
-        <v>5009</v>
+      <c r="Q26" s="31" t="str">
+        <v>C0007</v>
+      </c>
+      <c r="R26" s="32">
+        <v>1598</v>
+      </c>
+      <c r="S26" s="32">
+        <v>1907</v>
+      </c>
+      <c r="T26" s="32">
+        <v>869</v>
+      </c>
+      <c r="U26" s="32">
+        <v>1426</v>
+      </c>
+      <c r="V26" s="32">
+        <v>1416</v>
+      </c>
+      <c r="W26" s="33">
+        <v>7216</v>
       </c>
       <c r="X26" s="20"/>
       <c r="Y26" s="20"/>
@@ -56564,9 +56615,7 @@
       <c r="C27" s="20"/>
       <c r="D27" s="20"/>
       <c r="E27" s="20"/>
-      <c r="F27" s="20" t="s">
-        <v>1047</v>
-      </c>
+      <c r="F27" s="20"/>
       <c r="G27" s="20"/>
       <c r="H27" s="20"/>
       <c r="I27" s="20"/>
@@ -56577,26 +56626,26 @@
       <c r="N27" s="20"/>
       <c r="O27" s="20"/>
       <c r="P27" s="20"/>
-      <c r="Q27" s="33" t="str">
-        <v>C0010</v>
-      </c>
-      <c r="R27" s="34">
+      <c r="Q27" s="31" t="str">
+        <v>C0008</v>
+      </c>
+      <c r="R27" s="32">
         <v>900</v>
       </c>
-      <c r="S27" s="34">
-        <v>1470</v>
-      </c>
-      <c r="T27" s="34">
-        <v>1617</v>
-      </c>
-      <c r="U27" s="34">
-        <v>1314</v>
-      </c>
-      <c r="V27" s="34">
-        <v>941</v>
-      </c>
-      <c r="W27" s="35">
-        <v>6242</v>
+      <c r="S27" s="32">
+        <v>1016</v>
+      </c>
+      <c r="T27" s="32">
+        <v>960</v>
+      </c>
+      <c r="U27" s="32">
+        <v>940</v>
+      </c>
+      <c r="V27" s="32">
+        <v>1193</v>
+      </c>
+      <c r="W27" s="33">
+        <v>5009</v>
       </c>
       <c r="X27" s="20"/>
       <c r="Y27" s="20"/>
@@ -56619,7 +56668,9 @@
       <c r="C28" s="20"/>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
+      <c r="F28" s="20" t="s">
+        <v>1047</v>
+      </c>
       <c r="G28" s="20"/>
       <c r="H28" s="20"/>
       <c r="I28" s="20"/>
@@ -56630,26 +56681,26 @@
       <c r="N28" s="20"/>
       <c r="O28" s="20"/>
       <c r="P28" s="20"/>
-      <c r="Q28" s="33" t="str">
-        <v>C0013</v>
-      </c>
-      <c r="R28" s="34">
-        <v>1255</v>
-      </c>
-      <c r="S28" s="34">
-        <v>516</v>
-      </c>
-      <c r="T28" s="34">
-        <v>1874</v>
-      </c>
-      <c r="U28" s="34">
-        <v>1863</v>
-      </c>
-      <c r="V28" s="34">
-        <v>1722</v>
-      </c>
-      <c r="W28" s="35">
-        <v>7230</v>
+      <c r="Q28" s="31" t="str">
+        <v>C0010</v>
+      </c>
+      <c r="R28" s="32">
+        <v>900</v>
+      </c>
+      <c r="S28" s="32">
+        <v>1470</v>
+      </c>
+      <c r="T28" s="32">
+        <v>1617</v>
+      </c>
+      <c r="U28" s="32">
+        <v>1314</v>
+      </c>
+      <c r="V28" s="32">
+        <v>941</v>
+      </c>
+      <c r="W28" s="33">
+        <v>6242</v>
       </c>
       <c r="X28" s="20"/>
       <c r="Y28" s="20"/>
@@ -56683,26 +56734,26 @@
       <c r="N29" s="20"/>
       <c r="O29" s="20"/>
       <c r="P29" s="20"/>
-      <c r="Q29" s="33" t="str">
-        <v>C0015</v>
-      </c>
-      <c r="R29" s="34">
-        <v>1138</v>
-      </c>
-      <c r="S29" s="34">
-        <v>1898</v>
-      </c>
-      <c r="T29" s="34">
-        <v>1482</v>
-      </c>
-      <c r="U29" s="34">
-        <v>846</v>
-      </c>
-      <c r="V29" s="34">
-        <v>1154</v>
-      </c>
-      <c r="W29" s="35">
-        <v>6518</v>
+      <c r="Q29" s="31" t="str">
+        <v>C0013</v>
+      </c>
+      <c r="R29" s="32">
+        <v>1255</v>
+      </c>
+      <c r="S29" s="32">
+        <v>516</v>
+      </c>
+      <c r="T29" s="32">
+        <v>1874</v>
+      </c>
+      <c r="U29" s="32">
+        <v>1863</v>
+      </c>
+      <c r="V29" s="32">
+        <v>1722</v>
+      </c>
+      <c r="W29" s="33">
+        <v>7230</v>
       </c>
       <c r="X29" s="20"/>
       <c r="Y29" s="20"/>
@@ -56733,29 +56784,32 @@
       <c r="K30" s="20"/>
       <c r="L30" s="20"/>
       <c r="M30" s="20"/>
-      <c r="N30" s="20"/>
+      <c r="N30" s="41" t="str">
+        <f>Dynamique!M51</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="O30" s="20"/>
       <c r="P30" s="20"/>
-      <c r="Q30" s="41" t="str">
-        <v>Columbus</v>
-      </c>
-      <c r="R30" s="34" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="S30" s="34" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T30" s="34" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="U30" s="34" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="V30" s="34" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="W30" s="35" t="str">
-        <v xml:space="preserve"> </v>
+      <c r="Q30" s="31" t="str">
+        <v>C0015</v>
+      </c>
+      <c r="R30" s="32">
+        <v>1138</v>
+      </c>
+      <c r="S30" s="32">
+        <v>1898</v>
+      </c>
+      <c r="T30" s="32">
+        <v>1482</v>
+      </c>
+      <c r="U30" s="32">
+        <v>846</v>
+      </c>
+      <c r="V30" s="32">
+        <v>1154</v>
+      </c>
+      <c r="W30" s="33">
+        <v>6518</v>
       </c>
       <c r="X30" s="20"/>
       <c r="Y30" s="20"/>
@@ -56786,29 +56840,29 @@
       <c r="K31" s="20"/>
       <c r="L31" s="20"/>
       <c r="M31" s="20"/>
-      <c r="N31" s="20"/>
+      <c r="N31" s="41"/>
       <c r="O31" s="20"/>
       <c r="P31" s="20"/>
-      <c r="Q31" s="33" t="str">
-        <v>C0001</v>
-      </c>
-      <c r="R31" s="34">
-        <v>1655</v>
-      </c>
-      <c r="S31" s="34">
-        <v>805</v>
-      </c>
-      <c r="T31" s="34">
-        <v>2263</v>
-      </c>
-      <c r="U31" s="34">
-        <v>987</v>
-      </c>
-      <c r="V31" s="34">
-        <v>1075</v>
-      </c>
-      <c r="W31" s="35">
-        <v>6785</v>
+      <c r="Q31" s="39" t="str">
+        <v>Columbus</v>
+      </c>
+      <c r="R31" s="32" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="S31" s="32" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T31" s="32" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="U31" s="32" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="V31" s="32" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="W31" s="33" t="str">
+        <v xml:space="preserve"> </v>
       </c>
       <c r="X31" s="20"/>
       <c r="Y31" s="20"/>
@@ -56839,29 +56893,29 @@
       <c r="K32" s="20"/>
       <c r="L32" s="20"/>
       <c r="M32" s="20"/>
-      <c r="N32" s="20"/>
+      <c r="N32" s="41"/>
       <c r="O32" s="20"/>
       <c r="P32" s="20"/>
-      <c r="Q32" s="33" t="str">
-        <v>C0005</v>
-      </c>
-      <c r="R32" s="34">
-        <v>1104</v>
-      </c>
-      <c r="S32" s="34">
-        <v>2280</v>
-      </c>
-      <c r="T32" s="34">
-        <v>1445</v>
-      </c>
-      <c r="U32" s="34">
-        <v>1722</v>
-      </c>
-      <c r="V32" s="34">
-        <v>1196</v>
-      </c>
-      <c r="W32" s="35">
-        <v>7747</v>
+      <c r="Q32" s="31" t="str">
+        <v>C0001</v>
+      </c>
+      <c r="R32" s="32">
+        <v>1655</v>
+      </c>
+      <c r="S32" s="32">
+        <v>805</v>
+      </c>
+      <c r="T32" s="32">
+        <v>2263</v>
+      </c>
+      <c r="U32" s="32">
+        <v>987</v>
+      </c>
+      <c r="V32" s="32">
+        <v>1075</v>
+      </c>
+      <c r="W32" s="33">
+        <v>6785</v>
       </c>
       <c r="X32" s="20"/>
       <c r="Y32" s="20"/>
@@ -56892,29 +56946,29 @@
       <c r="K33" s="20"/>
       <c r="L33" s="20"/>
       <c r="M33" s="20"/>
-      <c r="N33" s="20"/>
+      <c r="N33" s="41"/>
       <c r="O33" s="20"/>
       <c r="P33" s="20"/>
-      <c r="Q33" s="33" t="str">
-        <v>C0006</v>
-      </c>
-      <c r="R33" s="34">
-        <v>372</v>
-      </c>
-      <c r="S33" s="34">
-        <v>1818</v>
-      </c>
-      <c r="T33" s="34">
-        <v>1346</v>
-      </c>
-      <c r="U33" s="34">
-        <v>1156</v>
-      </c>
-      <c r="V33" s="34">
-        <v>1484</v>
-      </c>
-      <c r="W33" s="35">
-        <v>6176</v>
+      <c r="Q33" s="31" t="str">
+        <v>C0005</v>
+      </c>
+      <c r="R33" s="32">
+        <v>1104</v>
+      </c>
+      <c r="S33" s="32">
+        <v>2280</v>
+      </c>
+      <c r="T33" s="32">
+        <v>1445</v>
+      </c>
+      <c r="U33" s="32">
+        <v>1722</v>
+      </c>
+      <c r="V33" s="32">
+        <v>1196</v>
+      </c>
+      <c r="W33" s="33">
+        <v>7747</v>
       </c>
       <c r="X33" s="20"/>
       <c r="Y33" s="20"/>
@@ -56945,29 +56999,32 @@
       <c r="K34" s="20"/>
       <c r="L34" s="20"/>
       <c r="M34" s="20"/>
-      <c r="N34" s="20"/>
+      <c r="N34" s="42" t="str">
+        <f>Dynamique!M47</f>
+        <v>% d'appels :100%</v>
+      </c>
       <c r="O34" s="20"/>
       <c r="P34" s="20"/>
-      <c r="Q34" s="33" t="str">
-        <v>C0009</v>
-      </c>
-      <c r="R34" s="34">
-        <v>1415</v>
-      </c>
-      <c r="S34" s="34">
-        <v>1271</v>
-      </c>
-      <c r="T34" s="34">
-        <v>1214</v>
-      </c>
-      <c r="U34" s="34">
-        <v>1135</v>
-      </c>
-      <c r="V34" s="34">
-        <v>1566</v>
-      </c>
-      <c r="W34" s="35">
-        <v>6601</v>
+      <c r="Q34" s="31" t="str">
+        <v>C0006</v>
+      </c>
+      <c r="R34" s="32">
+        <v>372</v>
+      </c>
+      <c r="S34" s="32">
+        <v>1818</v>
+      </c>
+      <c r="T34" s="32">
+        <v>1346</v>
+      </c>
+      <c r="U34" s="32">
+        <v>1156</v>
+      </c>
+      <c r="V34" s="32">
+        <v>1484</v>
+      </c>
+      <c r="W34" s="33">
+        <v>6176</v>
       </c>
       <c r="X34" s="20"/>
       <c r="Y34" s="20"/>
@@ -56998,29 +57055,32 @@
       <c r="K35" s="20"/>
       <c r="L35" s="20"/>
       <c r="M35" s="20"/>
-      <c r="N35" s="20"/>
+      <c r="N35" s="42" t="str">
+        <f>Dynamique!M48</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="O35" s="20"/>
       <c r="P35" s="20"/>
-      <c r="Q35" s="36" t="str">
-        <v>C0014</v>
-      </c>
-      <c r="R35" s="37">
-        <v>1362</v>
-      </c>
-      <c r="S35" s="37">
-        <v>1363</v>
-      </c>
-      <c r="T35" s="37">
-        <v>1152</v>
-      </c>
-      <c r="U35" s="37">
-        <v>777</v>
-      </c>
-      <c r="V35" s="37">
-        <v>750</v>
-      </c>
-      <c r="W35" s="38">
-        <v>5404</v>
+      <c r="Q35" s="31" t="str">
+        <v>C0009</v>
+      </c>
+      <c r="R35" s="32">
+        <v>1415</v>
+      </c>
+      <c r="S35" s="32">
+        <v>1271</v>
+      </c>
+      <c r="T35" s="32">
+        <v>1214</v>
+      </c>
+      <c r="U35" s="32">
+        <v>1135</v>
+      </c>
+      <c r="V35" s="32">
+        <v>1566</v>
+      </c>
+      <c r="W35" s="33">
+        <v>6601</v>
       </c>
       <c r="X35" s="20"/>
       <c r="Y35" s="20"/>
@@ -57051,16 +57111,33 @@
       <c r="K36" s="20"/>
       <c r="L36" s="20"/>
       <c r="M36" s="20"/>
-      <c r="N36" s="20"/>
+      <c r="N36" s="42" t="str">
+        <f>Dynamique!M49</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="O36" s="20"/>
       <c r="P36" s="20"/>
-      <c r="Q36" s="20"/>
-      <c r="R36" s="20"/>
-      <c r="S36" s="20"/>
-      <c r="T36" s="20"/>
-      <c r="U36" s="20"/>
-      <c r="V36" s="20"/>
-      <c r="W36" s="20"/>
+      <c r="Q36" s="34" t="str">
+        <v>C0014</v>
+      </c>
+      <c r="R36" s="35">
+        <v>1362</v>
+      </c>
+      <c r="S36" s="35">
+        <v>1363</v>
+      </c>
+      <c r="T36" s="35">
+        <v>1152</v>
+      </c>
+      <c r="U36" s="35">
+        <v>777</v>
+      </c>
+      <c r="V36" s="35">
+        <v>750</v>
+      </c>
+      <c r="W36" s="36">
+        <v>5404</v>
+      </c>
       <c r="X36" s="20"/>
       <c r="Y36" s="20"/>
       <c r="Z36" s="20"/>
@@ -62693,6 +62770,22 @@
       <c r="AK180" s="20"/>
     </row>
     <row r="181" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A181" s="20"/>
+      <c r="B181" s="20"/>
+      <c r="C181" s="20"/>
+      <c r="D181" s="20"/>
+      <c r="E181" s="20"/>
+      <c r="F181" s="20"/>
+      <c r="G181" s="20"/>
+      <c r="H181" s="20"/>
+      <c r="I181" s="20"/>
+      <c r="J181" s="20"/>
+      <c r="K181" s="20"/>
+      <c r="L181" s="20"/>
+      <c r="M181" s="20"/>
+      <c r="N181" s="20"/>
+      <c r="O181" s="20"/>
+      <c r="P181" s="20"/>
       <c r="Q181" s="20"/>
       <c r="R181" s="20"/>
       <c r="S181" s="20"/>
@@ -62700,13 +62793,39 @@
       <c r="U181" s="20"/>
       <c r="V181" s="20"/>
       <c r="W181" s="20"/>
+      <c r="X181" s="20"/>
+      <c r="Y181" s="20"/>
+      <c r="Z181" s="20"/>
+      <c r="AA181" s="20"/>
+      <c r="AB181" s="20"/>
+      <c r="AC181" s="20"/>
+      <c r="AD181" s="20"/>
+      <c r="AE181" s="20"/>
+      <c r="AF181" s="20"/>
+      <c r="AG181" s="20"/>
+      <c r="AH181" s="20"/>
+      <c r="AI181" s="20"/>
+      <c r="AJ181" s="20"/>
+      <c r="AK181" s="20"/>
+    </row>
+    <row r="182" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="Q182" s="20"/>
+      <c r="R182" s="20"/>
+      <c r="S182" s="20"/>
+      <c r="T182" s="20"/>
+      <c r="U182" s="20"/>
+      <c r="V182" s="20"/>
+      <c r="W182" s="20"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="R18:V35">
+  <mergeCells count="1">
+    <mergeCell ref="N30:N33"/>
+  </mergeCells>
+  <conditionalFormatting sqref="R19:V36">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="num" val="0"/>
-        <cfvo type="formula" val="MAX($R$18:$V$35)*2"/>
+        <cfvo type="formula" val="MAX($R$19:$V$36)*2"/>
         <color theme="1" tint="0.499984740745262"/>
       </dataBar>
       <extLst>
@@ -62722,25 +62841,8 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{EC3F3929-71C2-428F-8A62-B6F5A2B2843C}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="formula">
-                <xm:f>MAX($R$18:$V$35)*2</xm:f>
-              </x14:cfvo>
-              <x14:borderColor theme="1" tint="0.499984740745262"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>R18:V35</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="1" id="{A61D3331-264A-4AAF-9299-8644FF31F2CF}">
-            <xm:f>R$17=Dynamique!$A$41</xm:f>
+            <xm:f>R$18=Dynamique!$A$41</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -62759,7 +62861,24 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>R17:V35</xm:sqref>
+          <xm:sqref>R18:V36</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{EC3F3929-71C2-428F-8A62-B6F5A2B2843C}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="formula">
+                <xm:f>MAX($R$19:$V$36)*2</xm:f>
+              </x14:cfvo>
+              <x14:borderColor theme="1" tint="0.499984740745262"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>R19:V36</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
